--- a/BoM/Positional/rcbus-ymf262-bom.xlsx
+++ b/BoM/Positional/rcbus-ymf262-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="287">
   <si>
     <t>Row</t>
   </si>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U3-AOUT)</t>
+    <t>Net-(U3-AOUT),GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -230,519 +230,516 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>GND,/AUDIO_CH2</t>
+    <t>/AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C17 C18</t>
+  </si>
+  <si>
+    <t>3.9nF</t>
+  </si>
+  <si>
+    <t>-18.2780</t>
+  </si>
+  <si>
+    <t>10.3180</t>
+  </si>
+  <si>
+    <t>Net-(C17-Pad1),GND</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>-26.3606</t>
+  </si>
+  <si>
+    <t>-16.0501</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>VCC,GND</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C1 C3 C6 C7 C12</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(5)</t>
+  </si>
+  <si>
+    <t>-50.1905</t>
+  </si>
+  <si>
+    <t>-26.2820</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C15 C16</t>
+  </si>
+  <si>
+    <t>10uf</t>
+  </si>
+  <si>
+    <t>-28.5280</t>
+  </si>
+  <si>
+    <t>/L,Net-(C15-Pad2)</t>
+  </si>
+  <si>
+    <t>L,Net-(C15-Pad2)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>C4 C5</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>-15.3606</t>
+  </si>
+  <si>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>GND,Net-(C3-Pad1)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>-44.0280</t>
+  </si>
+  <si>
+    <t>-0.0445</t>
+  </si>
+  <si>
+    <t>Net-(U3-CV),GND</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>electrified</t>
+  </si>
+  <si>
+    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>-11.4590</t>
+  </si>
+  <si>
+    <t>6.2230</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>11.8000</t>
+  </si>
+  <si>
+    <t>,Net-(C18-Pad1),Net-(C17-Pad1),GND</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-95.5280</t>
+  </si>
+  <si>
+    <t>-24.8420</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_7),Net-(JP1-Pin_11),Net-(JP1-Pin_3),Net-(JP1-Pin_9),VCC,Net-(JP1-Pin_5),Net-(JP1-Pin_1)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>33uH</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>-9.8606</t>
+  </si>
+  <si>
+    <t>+5VA,Net-(C3-Pad1)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>BLM18PG221SN1D</t>
+  </si>
+  <si>
+    <t>-23.7356</t>
+  </si>
+  <si>
+    <t>-11.0501</t>
+  </si>
+  <si>
+    <t>VCC,Net-(C3-Pad1)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x39</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>RC2014 BUS</t>
+  </si>
+  <si>
+    <t>PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-98.5280</t>
+  </si>
+  <si>
+    <t>-31.6820</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>98.2200</t>
+  </si>
+  <si>
+    <t>unconnected-(P1-Pin_5-Pad5),/~{RD},/D7,unconnected-(P1-Pin_37-Pad37),/D6,unconnected-(P1-Pin_8-Pad8),/D1,unconnected-(P1-Pin_36-Pad36),/A2,unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_7-Pad7),/~{INT},unconnected-(P1-Pin_35-Pad35),/A5,/A3,/A1,/A6,/A4,/D0,unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_3-Pad3),/D3,unconnected-(P1-Pin_39-Pad39),/A0,/~{IORQ},/D5,unconnected-(P1-Pin_38-Pad38),/D2,unconnected-(P1-Pin_21-Pad21),/~{WR},VCC,GND,/D4,/~{RESET},/A7</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>-38.2780</t>
+  </si>
+  <si>
+    <t>-0.0945</t>
+  </si>
+  <si>
+    <t>Net-(U3-SWIN),Net-(U4B--)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>R10 R11</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>-23.5280</t>
+  </si>
+  <si>
+    <t>10.0680</t>
+  </si>
+  <si>
+    <t>Net-(C15-Pad2),Net-(C17-Pad1)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R1 R2 R3 R4 R5 R6</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(6)</t>
+  </si>
+  <si>
+    <t>-86.3905</t>
+  </si>
+  <si>
+    <t>-12.1520</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_11),GND</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>R8 R9</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>-37.7780</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>8-bit magnitude comparator</t>
+  </si>
+  <si>
+    <t>74HCT688</t>
+  </si>
+  <si>
+    <t>74xx</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-73.9330</t>
+  </si>
+  <si>
+    <t>-20.5320</t>
+  </si>
+  <si>
+    <t>11.3500</t>
+  </si>
+  <si>
+    <t>12.0300</t>
+  </si>
+  <si>
+    <t>/A6,/A4,Net-(JP1-Pin_7),/~{CS},/A2,Net-(JP1-Pin_11),Net-(JP1-Pin_3),Net-(JP1-Pin_9),VCC,/~{IORQ},GND,Net-(JP1-Pin_5),/A5,Net-(JP1-Pin_1),/A3,/A7</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
+  </si>
+  <si>
+    <t>TL074</t>
+  </si>
+  <si>
+    <t>Amplifier_Operational</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-41.3905</t>
+  </si>
+  <si>
+    <t>5.8180</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>8.2200</t>
+  </si>
+  <si>
+    <t>Net-(U4D--),+5VA,/R,Net-(U3-CV),Net-(U4C--),/AUDIO_CH1,Net-(U3-AOUT),Net-(U3-MP),Net-(U4B--),/L,/AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>YAC512</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-41.5280</t>
+  </si>
+  <si>
+    <t>-8.6820</t>
+  </si>
+  <si>
+    <t>8.1000</t>
+  </si>
+  <si>
+    <t>9.4900</t>
+  </si>
+  <si>
+    <t>Net-(U3-MP),/DAC_CLK,+5VA,Net-(U3-SWIN),/SMPAC,/AUDIO_CH1,Net-(U3-CV),/SMPBD,Net-(U3-AOUT),GND,unconnected-(U3-TST2-Pad15),/DOAB,/AUDIO_CH2</t>
   </si>
   <si>
     <t>AUDIO_CH2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C17 C18</t>
-  </si>
-  <si>
-    <t>3.9nF</t>
-  </si>
-  <si>
-    <t>-18.2780</t>
-  </si>
-  <si>
-    <t>10.3180</t>
-  </si>
-  <si>
-    <t>Net-(C17-Pad1),GND</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>-26.3606</t>
-  </si>
-  <si>
-    <t>-16.0501</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GND,VCC</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C1 C3 C6 C7 C12</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(5)</t>
-  </si>
-  <si>
-    <t>-50.1905</t>
-  </si>
-  <si>
-    <t>-26.2820</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C15 C16</t>
-  </si>
-  <si>
-    <t>10uf</t>
-  </si>
-  <si>
-    <t>-28.5280</t>
-  </si>
-  <si>
-    <t>Net-(C15-Pad2),/L</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>C4 C5</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>-15.3606</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),GND</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>-44.0280</t>
-  </si>
-  <si>
-    <t>-0.0445</t>
-  </si>
-  <si>
-    <t>GND,Net-(U3-CV)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>electrified</t>
-  </si>
-  <si>
-    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>-11.4590</t>
-  </si>
-  <si>
-    <t>6.2230</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>9.3500</t>
-  </si>
-  <si>
-    <t>11.8000</t>
-  </si>
-  <si>
-    <t>,GND,Net-(C18-Pad1),Net-(C17-Pad1)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-95.5280</t>
-  </si>
-  <si>
-    <t>-24.8420</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_9),Net-(JP1-Pin_3),Net-(JP1-Pin_11),VCC,Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_5)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>33uH</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>Inductor_SMD:L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>-9.8606</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),+5VA</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>BLM18PG221SN1D</t>
-  </si>
-  <si>
-    <t>-23.7356</t>
-  </si>
-  <si>
-    <t>-11.0501</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),VCC</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x39</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>RC2014 BUS</t>
-  </si>
-  <si>
-    <t>PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-98.5280</t>
-  </si>
-  <si>
-    <t>-31.6820</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>98.2200</t>
-  </si>
-  <si>
-    <t>/D6,/~{RESET},/A6,unconnected-(P1-Pin_5-Pad5),/A2,unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_4-Pad4),/~{RD},/~{IORQ},unconnected-(P1-Pin_35-Pad35),/A0,/D4,/A5,GND,VCC,unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_7-Pad7),/D2,unconnected-(P1-Pin_19-Pad19),/A3,/A1,unconnected-(P1-Pin_6-Pad6),/D5,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_38-Pad38),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_39-Pad39),/~{INT},/A4,/D3,/D0,unconnected-(P1-Pin_3-Pad3),/~{WR},/A7,/D7,/D1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>-38.2780</t>
-  </si>
-  <si>
-    <t>-0.0945</t>
-  </si>
-  <si>
-    <t>Net-(U4B--),Net-(U3-SWIN)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>R10 R11</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>-23.5280</t>
-  </si>
-  <si>
-    <t>10.0680</t>
-  </si>
-  <si>
-    <t>Net-(C15-Pad2),Net-(C17-Pad1)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(6)</t>
-  </si>
-  <si>
-    <t>-86.3905</t>
-  </si>
-  <si>
-    <t>-12.1520</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_11),GND</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>R8 R9</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>-37.7780</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>8-bit magnitude comparator</t>
-  </si>
-  <si>
-    <t>74HCT688</t>
-  </si>
-  <si>
-    <t>74xx</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-73.9330</t>
-  </si>
-  <si>
-    <t>-20.5320</t>
-  </si>
-  <si>
-    <t>11.3500</t>
-  </si>
-  <si>
-    <t>12.0300</t>
-  </si>
-  <si>
-    <t>/A4,Net-(JP1-Pin_9),/A3,/A5,GND,Net-(JP1-Pin_3),/A6,Net-(JP1-Pin_7),/A2,VCC,/A7,Net-(JP1-Pin_11),/~{CS},Net-(JP1-Pin_1),Net-(JP1-Pin_5),/~{IORQ}</t>
-  </si>
-  <si>
-    <t>~{IORQ}</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
-  </si>
-  <si>
-    <t>TL074</t>
-  </si>
-  <si>
-    <t>Amplifier_Operational</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-41.3905</t>
-  </si>
-  <si>
-    <t>5.8180</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>8.2200</t>
-  </si>
-  <si>
-    <t>Net-(U4B--),Net-(U4C--),/R,GND,/L,Net-(U3-AOUT),/AUDIO_CH2,Net-(U3-CV),/AUDIO_CH1,Net-(U4D--),Net-(U3-MP),+5VA</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,Net-(U4D--),Net-(U3-MP),+5VA</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>YAC512</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-41.5280</t>
-  </si>
-  <si>
-    <t>-8.6820</t>
-  </si>
-  <si>
-    <t>8.1000</t>
-  </si>
-  <si>
-    <t>9.4900</t>
-  </si>
-  <si>
-    <t>/SMPBD,/SMPAC,GND,unconnected-(U3-TST2-Pad15),Net-(U3-AOUT),/AUDIO_CH2,Net-(U3-CV),/AUDIO_CH1,/DAC_CLK,/DOAB,Net-(U3-MP),+5VA,Net-(U3-SWIN)</t>
-  </si>
-  <si>
-    <t>DOAB,Net-(U3-MP),+5VA,Net-(U3-SWIN)</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
@@ -770,10 +767,10 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/~{RESET},/~{RD},/A0,/D4,/CLK,unconnected-(U2-~{IRQ}-Pad2),GND,VCC,/DAC_CLK,/~{CS},/D1,/D2,/SMPAC,/A1,/D5,unconnected-(U2-TEST-Pad9),/SMPBD,unconnected-(U2-DOCD-Pad22),/D3,/D0,/~{WR},/D7,/DOAB,/D6</t>
-  </si>
-  <si>
-    <t>D6</t>
+    <t>unconnected-(U2-TEST-Pad9),/~{RD},/D7,/D6,/D1,unconnected-(U2-~{IRQ}-Pad2),unconnected-(U2-DOCD-Pad22),/A1,/D0,/CLK,/~{CS},/SMPAC,/D3,/A0,/D5,/D2,/DOAB,/~{WR},/DAC_CLK,/SMPBD,VCC,GND,/D4,/~{RESET}</t>
+  </si>
+  <si>
+    <t>~{RESET}</t>
   </si>
   <si>
     <t>23</t>
@@ -812,10 +809,10 @@
     <t>9.2200</t>
   </si>
   <si>
-    <t>unconnected-(X1-EN-Pad1),GND,VCC,/CLK</t>
-  </si>
-  <si>
-    <t>CLK</t>
+    <t>VCC,GND,/CLK,unconnected-(X1-EN-Pad1)</t>
+  </si>
+  <si>
+    <t>CLK,unconnected-(X1-EN-Pad1)</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -1423,7 +1420,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1457,13 +1454,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F2" s="3">
         <v>23</v>
@@ -1471,41 +1468,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1513,13 +1510,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F6" s="3">
         <v>39</v>
@@ -2709,22 +2706,22 @@
         <v>144</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2754,10 +2751,10 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>82</v>
@@ -2787,10 +2784,10 @@
         <v>143</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>55</v>
@@ -2801,28 +2798,28 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2852,13 +2849,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>91</v>
@@ -2882,13 +2879,13 @@
         <v>53</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>55</v>
@@ -2897,27 +2894,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="180" customHeight="1">
+    <row r="22" spans="1:32" ht="165" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>132</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>121</v>
@@ -2950,13 +2947,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>69</v>
@@ -2974,19 +2971,19 @@
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA22" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>55</v>
@@ -2997,28 +2994,28 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>32</v>
@@ -3048,13 +3045,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>69</v>
@@ -3078,13 +3075,13 @@
         <v>53</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>55</v>
@@ -3095,28 +3092,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>56</v>
@@ -3146,13 +3143,13 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>48</v>
@@ -3176,13 +3173,13 @@
         <v>53</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>55</v>
@@ -3193,28 +3190,28 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>85</v>
@@ -3232,7 +3229,7 @@
         <v>42</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>44</v>
@@ -3244,13 +3241,13 @@
         <v>44</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>91</v>
@@ -3274,13 +3271,13 @@
         <v>53</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>55</v>
@@ -3291,28 +3288,28 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>56</v>
@@ -3342,10 +3339,10 @@
         <v>44</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>62</v>
@@ -3372,7 +3369,7 @@
         <v>53</v>
       </c>
       <c r="AB26" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC26" s="10" t="s">
         <v>63</v>
@@ -3389,28 +3386,28 @@
     </row>
     <row r="27" spans="1:32" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>32</v>
@@ -3422,7 +3419,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>42</v>
@@ -3440,13 +3437,13 @@
         <v>44</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>69</v>
@@ -3464,19 +3461,19 @@
         <v>51</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="AE27" s="6" t="s">
         <v>55</v>
@@ -3485,7 +3482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="45" customHeight="1">
+    <row r="28" spans="1:32" ht="30" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>216</v>
       </c>
@@ -3508,7 +3505,7 @@
         <v>221</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3574,7 +3571,7 @@
         <v>228</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>55</v>
@@ -3585,28 +3582,28 @@
     </row>
     <row r="29" spans="1:32" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>32</v>
@@ -3636,13 +3633,13 @@
         <v>44</v>
       </c>
       <c r="R29" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="S29" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="T29" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -3660,19 +3657,19 @@
         <v>51</v>
       </c>
       <c r="Z29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA29" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="AA29" s="7" t="s">
+      <c r="AB29" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC29" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AB29" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC29" s="6" t="s">
+      <c r="AD29" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="AE29" s="6" t="s">
         <v>55</v>
@@ -3683,28 +3680,28 @@
     </row>
     <row r="30" spans="1:32" ht="60" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>121</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="H30" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3734,13 +3731,13 @@
         <v>44</v>
       </c>
       <c r="R30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="S30" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="T30" s="11" t="s">
         <v>246</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="U30" s="11" t="s">
         <v>69</v>
@@ -3758,19 +3755,19 @@
         <v>51</v>
       </c>
       <c r="Z30" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA30" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="AA30" s="11" t="s">
+      <c r="AB30" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC30" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="AB30" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC30" s="10" t="s">
+      <c r="AD30" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="AD30" s="10" t="s">
-        <v>251</v>
       </c>
       <c r="AE30" s="10" t="s">
         <v>55</v>
@@ -3781,25 +3778,25 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>121</v>
@@ -3814,7 +3811,7 @@
         <v>40</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>42</v>
@@ -3832,13 +3829,13 @@
         <v>44</v>
       </c>
       <c r="R31" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="S31" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="T31" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="U31" s="7" t="s">
         <v>83</v>
@@ -3856,19 +3853,19 @@
         <v>51</v>
       </c>
       <c r="Z31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA31" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="AA31" s="7" t="s">
+      <c r="AB31" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC31" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="AB31" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC31" s="6" t="s">
+      <c r="AD31" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="AE31" s="6" t="s">
         <v>55</v>
@@ -3900,27 +3897,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-ymf262-bom.xlsx
+++ b/BoM/Positional/rcbus-ymf262-bom.xlsx
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(U3-AOUT),GND</t>
+    <t>GND,Net-(U3-AOUT)</t>
   </si>
   <si>
     <t>Default</t>
@@ -209,10 +209,10 @@
     <t>12.8180</t>
   </si>
   <si>
-    <t>/L,Net-(U4C--)</t>
-  </si>
-  <si>
-    <t>L,Net-(U4C--)</t>
+    <t>Net-(U4C--),/L</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>3</t>
@@ -230,10 +230,10 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>/AUDIO_CH2,GND</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2,GND</t>
+    <t>GND,/AUDIO_CH2</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2</t>
   </si>
   <si>
     <t>4</t>
@@ -251,7 +251,7 @@
     <t>10.3180</t>
   </si>
   <si>
-    <t>Net-(C17-Pad1),GND</t>
+    <t>GND,Net-(C17-Pad1)</t>
   </si>
   <si>
     <t>5</t>
@@ -272,25 +272,25 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>VCC,GND</t>
+    <t>GND,VCC</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>C1 C3 C6 C7 C12</t>
+    <t>C1 C3 C6 C7 C12 C19</t>
   </si>
   <si>
     <t>0.1uF</t>
   </si>
   <si>
-    <t>rcbus-ymf262(5)</t>
-  </si>
-  <si>
-    <t>-50.1905</t>
-  </si>
-  <si>
-    <t>-26.2820</t>
+    <t>rcbus-ymf262(6)</t>
+  </si>
+  <si>
+    <t>-49.2780</t>
+  </si>
+  <si>
+    <t>-25.4320</t>
   </si>
   <si>
     <t>180.0000</t>
@@ -314,10 +314,7 @@
     <t>-28.5280</t>
   </si>
   <si>
-    <t>/L,Net-(C15-Pad2)</t>
-  </si>
-  <si>
-    <t>L,Net-(C15-Pad2)</t>
+    <t>Net-(C15-Pad2),/L</t>
   </si>
   <si>
     <t>8</t>
@@ -359,7 +356,7 @@
     <t>-0.0445</t>
   </si>
   <si>
-    <t>Net-(U3-CV),GND</t>
+    <t>GND,Net-(U3-CV)</t>
   </si>
   <si>
     <t>10</t>
@@ -404,7 +401,7 @@
     <t>11.8000</t>
   </si>
   <si>
-    <t>,Net-(C18-Pad1),Net-(C17-Pad1),GND</t>
+    <t>,GND,Net-(C18-Pad1),Net-(C17-Pad1)</t>
   </si>
   <si>
     <t>11</t>
@@ -446,7 +443,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_7),Net-(JP1-Pin_11),Net-(JP1-Pin_3),Net-(JP1-Pin_9),VCC,Net-(JP1-Pin_5),Net-(JP1-Pin_1)</t>
+    <t>VCC,Net-(JP1-Pin_9),Net-(JP1-Pin_1),Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_11),Net-(JP1-Pin_3)</t>
   </si>
   <si>
     <t>12</t>
@@ -455,9 +452,6 @@
     <t>Inductor</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -530,10 +524,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>unconnected-(P1-Pin_5-Pad5),/~{RD},/D7,unconnected-(P1-Pin_37-Pad37),/D6,unconnected-(P1-Pin_8-Pad8),/D1,unconnected-(P1-Pin_36-Pad36),/A2,unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_23-Pad23),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_7-Pad7),/~{INT},unconnected-(P1-Pin_35-Pad35),/A5,/A3,/A1,/A6,/A4,/D0,unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_3-Pad3),/D3,unconnected-(P1-Pin_39-Pad39),/A0,/~{IORQ},/D5,unconnected-(P1-Pin_38-Pad38),/D2,unconnected-(P1-Pin_21-Pad21),/~{WR},VCC,GND,/D4,/~{RESET},/A7</t>
-  </si>
-  <si>
-    <t>A7</t>
+    <t>/A7,unconnected-(P1-Pin_3-Pad3),/A3,/~{RD},/D1,unconnected-(P1-Pin_21-Pad21),/~{INT},/A6,/D4,/A4,unconnected-(P1-Pin_19-Pad19),/D3,unconnected-(P1-Pin_38-Pad38),/D6,/A1,/~{WR},unconnected-(P1-Pin_36-Pad36),/D0,/D7,unconnected-(P1-Pin_1-Pad1),/A5,/D5,unconnected-(P1-Pin_7-Pad7),VCC,/A2,/~{IORQ},unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_8-Pad8),/~{RESET},unconnected-(P1-Pin_39-Pad39),GND,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_4-Pad4),/D2,unconnected-(P1-Pin_5-Pad5),/A0,unconnected-(P1-Pin_23-Pad23)</t>
+  </si>
+  <si>
+    <t>A0,unconnected-(P1-Pin_23-Pad23)</t>
   </si>
   <si>
     <t>15</t>
@@ -602,16 +596,13 @@
     <t>10K</t>
   </si>
   <si>
-    <t>rcbus-ymf262(6)</t>
-  </si>
-  <si>
     <t>-86.3905</t>
   </si>
   <si>
     <t>-12.1520</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_11),GND</t>
+    <t>GND,Net-(JP1-Pin_11)</t>
   </si>
   <si>
     <t>18</t>
@@ -665,7 +656,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/A6,/A4,Net-(JP1-Pin_7),/~{CS},/A2,Net-(JP1-Pin_11),Net-(JP1-Pin_3),Net-(JP1-Pin_9),VCC,/~{IORQ},GND,Net-(JP1-Pin_5),/A5,Net-(JP1-Pin_1),/A3,/A7</t>
+    <t>/A7,VCC,Net-(JP1-Pin_9),/A2,/A3,Net-(JP1-Pin_1),/~{IORQ},Net-(JP1-Pin_7),Net-(JP1-Pin_11),/A6,Net-(JP1-Pin_5),Net-(JP1-Pin_3),/A4,/~{CS},/A5,GND</t>
+  </si>
+  <si>
+    <t>A5,GND</t>
   </si>
   <si>
     <t>20</t>
@@ -704,7 +698,10 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>Net-(U4D--),+5VA,/R,Net-(U3-CV),Net-(U4C--),/AUDIO_CH1,Net-(U3-AOUT),Net-(U3-MP),Net-(U4B--),/L,/AUDIO_CH2,GND</t>
+    <t>Net-(U4C--),Net-(U3-AOUT),/L,Net-(U4D--),Net-(U3-MP),/AUDIO_CH2,/AUDIO_CH1,/R,Net-(U4B--),+5VA,GND,Net-(U3-CV)</t>
+  </si>
+  <si>
+    <t>R,Net-(U4B--),+5VA,GND,Net-(U3-CV)</t>
   </si>
   <si>
     <t>21</t>
@@ -734,10 +731,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>Net-(U3-MP),/DAC_CLK,+5VA,Net-(U3-SWIN),/SMPAC,/AUDIO_CH1,Net-(U3-CV),/SMPBD,Net-(U3-AOUT),GND,unconnected-(U3-TST2-Pad15),/DOAB,/AUDIO_CH2</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2</t>
+    <t>/DAC_CLK,/SMPAC,Net-(U3-AOUT),Net-(U3-MP),/SMPBD,/AUDIO_CH2,/AUDIO_CH1,Net-(U3-SWIN),+5VA,GND,Net-(U3-CV),/DOAB,unconnected-(U3-TST2-Pad15)</t>
+  </si>
+  <si>
+    <t>DOAB,unconnected-(U3-TST2-Pad15)</t>
   </si>
   <si>
     <t>22</t>
@@ -767,52 +764,55 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>unconnected-(U2-TEST-Pad9),/~{RD},/D7,/D6,/D1,unconnected-(U2-~{IRQ}-Pad2),unconnected-(U2-DOCD-Pad22),/A1,/D0,/CLK,/~{CS},/SMPAC,/D3,/A0,/D5,/D2,/DOAB,/~{WR},/DAC_CLK,/SMPBD,VCC,GND,/D4,/~{RESET}</t>
-  </si>
-  <si>
-    <t>~{RESET}</t>
+    <t>/~{RD},/D1,unconnected-(U2-DOCD-Pad22),/D3,/DOAB,/D6,/A1,/~{WR},/CLK,/SMPBD,/D0,/~{CS},/D7,/D5,VCC,/A0,/~{RESET},GND,unconnected-(U2-TEST-Pad9),/DAC_CLK,/SMPAC,/D2,unconnected-(U2-~{IRQ}-Pad2),/D4</t>
+  </si>
+  <si>
+    <t>D4</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>Crystal Clock Oscillator, DIP8-style metal package</t>
-  </si>
-  <si>
-    <t>CXO_DIP-8-14</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>14.318MHz</t>
-  </si>
-  <si>
-    <t>Oscillator_DIP-8-14</t>
-  </si>
-  <si>
-    <t>http://cdn-reichelt.de/documents/datenblatt/B400/OSZI.pdf</t>
-  </si>
-  <si>
-    <t>electrified:Oscillator_DIP-8-14</t>
-  </si>
-  <si>
-    <t>-66.0280</t>
-  </si>
-  <si>
-    <t>-3.6820</t>
-  </si>
-  <si>
-    <t>16.8400</t>
-  </si>
-  <si>
-    <t>9.2200</t>
-  </si>
-  <si>
-    <t>VCC,GND,/CLK,unconnected-(X1-EN-Pad1)</t>
-  </si>
-  <si>
-    <t>CLK,unconnected-(X1-EN-Pad1)</t>
+    <t>3.3V HCMOS SMD Crystal Clock Oscillator, Abracon</t>
+  </si>
+  <si>
+    <t>ASV-xxxMHz</t>
+  </si>
+  <si>
+    <t>Oscillator</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>SG-8002CA</t>
+  </si>
+  <si>
+    <t>Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
+  </si>
+  <si>
+    <t>http://www.abracon.com/Oscillators/ASV.pdf</t>
+  </si>
+  <si>
+    <t>Oscillator:Oscillator_SMD_Abracon_ASV-4Pin_7.0x5.1mm</t>
+  </si>
+  <si>
+    <t>-57.4880</t>
+  </si>
+  <si>
+    <t>-15.4320</t>
+  </si>
+  <si>
+    <t>6.8800</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>/CLK,GND,VCC</t>
+  </si>
+  <si>
+    <t>CLK,GND,VCC</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -854,7 +854,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>39 (35 SMD/ 4 THT)</t>
+    <t>40 (37 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1388,14 +1388,14 @@
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="60.7109375" customWidth="1"/>
+    <col min="12" max="12" width="52.7109375" customWidth="1"/>
     <col min="13" max="13" width="19.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" customWidth="1"/>
@@ -1519,7 +1519,7 @@
         <v>281</v>
       </c>
       <c r="F6" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -2136,10 +2136,10 @@
         <v>39</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>40</v>
@@ -2205,7 +2205,7 @@
         <v>55</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -2297,7 +2297,7 @@
         <v>98</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>55</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>93</v>
@@ -2320,13 +2320,13 @@
         <v>35</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>39</v>
@@ -2359,10 +2359,10 @@
         <v>44</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>82</v>
@@ -2383,19 +2383,19 @@
         <v>51</v>
       </c>
       <c r="Z16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AB16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC16" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AB16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC16" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="AD16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE16" s="10" t="s">
         <v>55</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>33</v>
@@ -2418,10 +2418,10 @@
         <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -2460,10 +2460,10 @@
         <v>45</v>
       </c>
       <c r="S17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="U17" s="7" t="s">
         <v>48</v>
@@ -2487,13 +2487,13 @@
         <v>53</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>55</v>
@@ -2504,28 +2504,28 @@
     </row>
     <row r="18" spans="1:32" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>32</v>
@@ -2555,13 +2555,13 @@
         <v>44</v>
       </c>
       <c r="R18" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>91</v>
@@ -2570,28 +2570,28 @@
         <v>49</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y18" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z18" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA18" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AA18" s="11" t="s">
+      <c r="AB18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AB18" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC18" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="AD18" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE18" s="10" t="s">
         <v>55</v>
@@ -2602,28 +2602,28 @@
     </row>
     <row r="19" spans="1:32" ht="45" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>32</v>
@@ -2653,13 +2653,13 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="S19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="T19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>91</v>
@@ -2668,28 +2668,28 @@
         <v>49</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y19" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AA19" s="7" t="s">
+      <c r="AB19" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC19" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AB19" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC19" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="AD19" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>55</v>
@@ -2700,28 +2700,28 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="C20" s="11" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2751,10 +2751,10 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>82</v>
@@ -2781,13 +2781,13 @@
         <v>53</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>55</v>
@@ -2798,28 +2798,28 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2849,13 +2849,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>91</v>
@@ -2879,13 +2879,13 @@
         <v>53</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>55</v>
@@ -2894,30 +2894,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="165" customHeight="1">
+    <row r="22" spans="1:32" ht="180" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="D22" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>164</v>
-      </c>
       <c r="H22" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2947,13 +2947,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="T22" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>69</v>
@@ -2962,28 +2962,28 @@
         <v>49</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA22" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC22" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="AA22" s="11" t="s">
+      <c r="AD22" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>55</v>
@@ -2994,28 +2994,28 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>32</v>
@@ -3045,13 +3045,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="T23" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>69</v>
@@ -3075,13 +3075,13 @@
         <v>53</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>55</v>
@@ -3092,28 +3092,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>56</v>
@@ -3143,13 +3143,13 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>48</v>
@@ -3173,13 +3173,13 @@
         <v>53</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>55</v>
@@ -3190,28 +3190,28 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>85</v>
@@ -3229,7 +3229,7 @@
         <v>42</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>44</v>
@@ -3241,13 +3241,13 @@
         <v>44</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U25" s="7" t="s">
         <v>91</v>
@@ -3271,13 +3271,13 @@
         <v>53</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>55</v>
@@ -3288,28 +3288,28 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>56</v>
@@ -3339,10 +3339,10 @@
         <v>44</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T26" s="11" t="s">
         <v>62</v>
@@ -3369,7 +3369,7 @@
         <v>53</v>
       </c>
       <c r="AB26" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AC26" s="10" t="s">
         <v>63</v>
@@ -3386,28 +3386,28 @@
     </row>
     <row r="27" spans="1:32" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="F27" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>32</v>
@@ -3419,7 +3419,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>42</v>
@@ -3437,13 +3437,13 @@
         <v>44</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>69</v>
@@ -3461,19 +3461,19 @@
         <v>51</v>
       </c>
       <c r="Z27" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA27" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD27" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="AA27" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="AE27" s="6" t="s">
         <v>55</v>
@@ -3482,30 +3482,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="30" customHeight="1">
+    <row r="28" spans="1:32" ht="45" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="F28" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>221</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3517,7 +3517,7 @@
         <v>40</v>
       </c>
       <c r="L28" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>42</v>
@@ -3535,13 +3535,13 @@
         <v>44</v>
       </c>
       <c r="R28" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T28" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>69</v>
@@ -3559,19 +3559,19 @@
         <v>51</v>
       </c>
       <c r="Z28" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA28" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB28" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC28" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AD28" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="AB28" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC28" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD28" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>55</v>
@@ -3582,28 +3582,28 @@
     </row>
     <row r="29" spans="1:32" ht="45" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>32</v>
@@ -3633,13 +3633,13 @@
         <v>44</v>
       </c>
       <c r="R29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="S29" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="T29" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -3657,19 +3657,19 @@
         <v>51</v>
       </c>
       <c r="Z29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA29" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="AA29" s="7" t="s">
+      <c r="AB29" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC29" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AB29" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC29" s="6" t="s">
+      <c r="AD29" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>239</v>
       </c>
       <c r="AE29" s="6" t="s">
         <v>55</v>
@@ -3680,28 +3680,28 @@
     </row>
     <row r="30" spans="1:32" ht="60" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>243</v>
-      </c>
       <c r="H30" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3731,13 +3731,13 @@
         <v>44</v>
       </c>
       <c r="R30" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="S30" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="T30" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="U30" s="11" t="s">
         <v>69</v>
@@ -3755,19 +3755,19 @@
         <v>51</v>
       </c>
       <c r="Z30" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA30" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="AA30" s="11" t="s">
+      <c r="AB30" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC30" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="AB30" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC30" s="10" t="s">
+      <c r="AD30" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="AD30" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="AE30" s="10" t="s">
         <v>55</v>
@@ -3778,16 +3778,16 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>254</v>
@@ -3799,7 +3799,7 @@
         <v>256</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>121</v>
+        <v>253</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>32</v>
@@ -3844,10 +3844,10 @@
         <v>49</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="Y31" s="7" t="s">
         <v>51</v>
@@ -3859,7 +3859,7 @@
         <v>262</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>263</v>

--- a/BoM/Positional/rcbus-ymf262-bom.xlsx
+++ b/BoM/Positional/rcbus-ymf262-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="284">
   <si>
     <t>Row</t>
   </si>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U3-AOUT)</t>
+    <t>Net-(U3-AOUT),GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -209,568 +209,559 @@
     <t>12.8180</t>
   </si>
   <si>
-    <t>Net-(U4C--),/L</t>
+    <t>/L,Net-(U4C--)</t>
+  </si>
+  <si>
+    <t>L,Net-(U4C--)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C9 C10</t>
+  </si>
+  <si>
+    <t>2.7nf</t>
+  </si>
+  <si>
+    <t>-40.0280</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>/AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C17 C18</t>
+  </si>
+  <si>
+    <t>3.9nF</t>
+  </si>
+  <si>
+    <t>-18.2780</t>
+  </si>
+  <si>
+    <t>10.3180</t>
+  </si>
+  <si>
+    <t>Net-(C17-Pad1),GND</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>-26.3606</t>
+  </si>
+  <si>
+    <t>-16.0501</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>GND,VCC</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C1 C3 C6 C7 C12 C19</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(6)</t>
+  </si>
+  <si>
+    <t>-49.2780</t>
+  </si>
+  <si>
+    <t>-25.4320</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(3)</t>
+  </si>
+  <si>
+    <t>-44.0280</t>
+  </si>
+  <si>
+    <t>-0.0445</t>
+  </si>
+  <si>
+    <t>Net-(U3-CV),GND</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C4 C5</t>
+  </si>
+  <si>
+    <t>C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>-15.3606</t>
+  </si>
+  <si>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),GND</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>electrified</t>
+  </si>
+  <si>
+    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>-11.4590</t>
+  </si>
+  <si>
+    <t>6.2230</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>11.8000</t>
+  </si>
+  <si>
+    <t>,Net-(C17-Pad1),Net-(C18-Pad1),GND</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-95.5280</t>
+  </si>
+  <si>
+    <t>-24.8420</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_9),Net-(JP1-Pin_11),Net-(JP1-Pin_3),VCC</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Inductor</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C9 C10</t>
-  </si>
-  <si>
-    <t>2.7nf</t>
-  </si>
-  <si>
-    <t>-40.0280</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>GND,/AUDIO_CH2</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C17 C18</t>
-  </si>
-  <si>
-    <t>3.9nF</t>
-  </si>
-  <si>
-    <t>-18.2780</t>
-  </si>
-  <si>
-    <t>10.3180</t>
-  </si>
-  <si>
-    <t>GND,Net-(C17-Pad1)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>-26.3606</t>
-  </si>
-  <si>
-    <t>-16.0501</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GND,VCC</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C1 C3 C6 C7 C12 C19</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(6)</t>
-  </si>
-  <si>
-    <t>-49.2780</t>
-  </si>
-  <si>
-    <t>-25.4320</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C15 C16</t>
-  </si>
-  <si>
-    <t>10uf</t>
-  </si>
-  <si>
-    <t>-28.5280</t>
-  </si>
-  <si>
-    <t>Net-(C15-Pad2),/L</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>C4 C5</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>-15.3606</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>GND,Net-(C3-Pad1)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>-44.0280</t>
-  </si>
-  <si>
-    <t>-0.0445</t>
-  </si>
-  <si>
-    <t>GND,Net-(U3-CV)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>electrified</t>
-  </si>
-  <si>
-    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>-11.4590</t>
-  </si>
-  <si>
-    <t>6.2230</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>9.3500</t>
-  </si>
-  <si>
-    <t>11.8000</t>
-  </si>
-  <si>
-    <t>,GND,Net-(C18-Pad1),Net-(C17-Pad1)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-95.5280</t>
-  </si>
-  <si>
-    <t>-24.8420</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VCC,Net-(JP1-Pin_9),Net-(JP1-Pin_1),Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_11),Net-(JP1-Pin_3)</t>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>33uH</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>-9.8606</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),+5VA</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>33uH</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>Inductor_SMD:L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>-9.8606</t>
-  </si>
-  <si>
-    <t>+5VA,Net-(C3-Pad1)</t>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>BLM18PG221SN1D</t>
+  </si>
+  <si>
+    <t>-23.7356</t>
+  </si>
+  <si>
+    <t>-11.0501</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),VCC</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>BLM18PG221SN1D</t>
-  </si>
-  <si>
-    <t>-23.7356</t>
-  </si>
-  <si>
-    <t>-11.0501</t>
-  </si>
-  <si>
-    <t>VCC,Net-(C3-Pad1)</t>
+    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x39</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>RC2014 BUS</t>
+  </si>
+  <si>
+    <t>PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-98.5280</t>
+  </si>
+  <si>
+    <t>-31.6820</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>98.2200</t>
+  </si>
+  <si>
+    <t>unconnected-(P1-Pin_8-Pad8),/~{IORQ},unconnected-(P1-Pin_39-Pad39),/D0,unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_3-Pad3),/A3,/~{WR},/D3,unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_37-Pad37),/D6,/~{INT},unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_38-Pad38),/A4,unconnected-(P1-Pin_21-Pad21),/D5,unconnected-(P1-Pin_23-Pad23),/D1,/D7,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_36-Pad36),/A1,/A2,/~{RD},/A6,/A7,/~{RESET},/D2,/A5,/D4,GND,/A0,unconnected-(P1-Pin_7-Pad7),VCC</t>
+  </si>
+  <si>
+    <t>A0,unconnected-(P1-Pin_7-Pad7),VCC</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x39</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>RC2014 BUS</t>
-  </si>
-  <si>
-    <t>PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-98.5280</t>
-  </si>
-  <si>
-    <t>-31.6820</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>98.2200</t>
-  </si>
-  <si>
-    <t>/A7,unconnected-(P1-Pin_3-Pad3),/A3,/~{RD},/D1,unconnected-(P1-Pin_21-Pad21),/~{INT},/A6,/D4,/A4,unconnected-(P1-Pin_19-Pad19),/D3,unconnected-(P1-Pin_38-Pad38),/D6,/A1,/~{WR},unconnected-(P1-Pin_36-Pad36),/D0,/D7,unconnected-(P1-Pin_1-Pad1),/A5,/D5,unconnected-(P1-Pin_7-Pad7),VCC,/A2,/~{IORQ},unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_8-Pad8),/~{RESET},unconnected-(P1-Pin_39-Pad39),GND,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_4-Pad4),/D2,unconnected-(P1-Pin_5-Pad5),/A0,unconnected-(P1-Pin_23-Pad23)</t>
-  </si>
-  <si>
-    <t>A0,unconnected-(P1-Pin_23-Pad23)</t>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>-38.2780</t>
+  </si>
+  <si>
+    <t>-0.0945</t>
+  </si>
+  <si>
+    <t>Net-(U3-SWIN),Net-(U4B--)</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>-38.2780</t>
-  </si>
-  <si>
-    <t>-0.0945</t>
-  </si>
-  <si>
-    <t>Net-(U3-SWIN),Net-(U4B--)</t>
+    <t>R10 R11</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>-23.5280</t>
+  </si>
+  <si>
+    <t>10.0680</t>
+  </si>
+  <si>
+    <t>Net-(C17-Pad1),Net-(C15-Pad2)</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>R10 R11</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>-23.5280</t>
-  </si>
-  <si>
-    <t>10.0680</t>
-  </si>
-  <si>
-    <t>Net-(C15-Pad2),Net-(C17-Pad1)</t>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R1 R2 R3 R4 R5 R6</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>-86.3905</t>
+  </si>
+  <si>
+    <t>-12.1520</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_11),GND</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>-86.3905</t>
-  </si>
-  <si>
-    <t>-12.1520</t>
-  </si>
-  <si>
-    <t>GND,Net-(JP1-Pin_11)</t>
+    <t>R8 R9</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>-37.7780</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>R8 R9</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>-37.7780</t>
+    <t>8-bit magnitude comparator</t>
+  </si>
+  <si>
+    <t>74HCT688</t>
+  </si>
+  <si>
+    <t>74xx</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-73.9330</t>
+  </si>
+  <si>
+    <t>-20.5320</t>
+  </si>
+  <si>
+    <t>11.3500</t>
+  </si>
+  <si>
+    <t>12.0300</t>
+  </si>
+  <si>
+    <t>/~{IORQ},Net-(JP1-Pin_5),/A5,Net-(JP1-Pin_9),Net-(JP1-Pin_7),Net-(JP1-Pin_1),/A3,/A2,/~{CS},/A6,/A7,GND,Net-(JP1-Pin_3),Net-(JP1-Pin_11),/A4,VCC</t>
+  </si>
+  <si>
+    <t>A4,VCC</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>8-bit magnitude comparator</t>
-  </si>
-  <si>
-    <t>74HCT688</t>
-  </si>
-  <si>
-    <t>74xx</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/cd54hc688.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-20W_7.5x12.8mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-73.9330</t>
-  </si>
-  <si>
-    <t>-20.5320</t>
-  </si>
-  <si>
-    <t>11.3500</t>
-  </si>
-  <si>
-    <t>12.0300</t>
-  </si>
-  <si>
-    <t>/A7,VCC,Net-(JP1-Pin_9),/A2,/A3,Net-(JP1-Pin_1),/~{IORQ},Net-(JP1-Pin_7),Net-(JP1-Pin_11),/A6,Net-(JP1-Pin_5),Net-(JP1-Pin_3),/A4,/~{CS},/A5,GND</t>
-  </si>
-  <si>
-    <t>A5,GND</t>
+    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
+  </si>
+  <si>
+    <t>TL074</t>
+  </si>
+  <si>
+    <t>Amplifier_Operational</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-41.3905</t>
+  </si>
+  <si>
+    <t>5.8180</t>
+  </si>
+  <si>
+    <t>6.9000</t>
+  </si>
+  <si>
+    <t>8.2200</t>
+  </si>
+  <si>
+    <t>Net-(U3-MP),/AUDIO_CH2,Net-(U3-AOUT),+5VA,Net-(U4B--),/L,Net-(U3-CV),Net-(U4C--),/R,GND,/AUDIO_CH1,Net-(U4D--)</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1,Net-(U4D--)</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>Quad Low-Noise JFET-Input Operational Amplifiers, DIP-14/SOIC-14</t>
-  </si>
-  <si>
-    <t>TL074</t>
-  </si>
-  <si>
-    <t>Amplifier_Operational</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/ds/symlink/tl071.pdf</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-41.3905</t>
-  </si>
-  <si>
-    <t>5.8180</t>
-  </si>
-  <si>
-    <t>6.9000</t>
-  </si>
-  <si>
-    <t>8.2200</t>
-  </si>
-  <si>
-    <t>Net-(U4C--),Net-(U3-AOUT),/L,Net-(U4D--),Net-(U3-MP),/AUDIO_CH2,/AUDIO_CH1,/R,Net-(U4B--),+5VA,GND,Net-(U3-CV)</t>
-  </si>
-  <si>
-    <t>R,Net-(U4B--),+5VA,GND,Net-(U3-CV)</t>
+    <t>YAC512</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-41.5280</t>
+  </si>
+  <si>
+    <t>-8.6820</t>
+  </si>
+  <si>
+    <t>8.1000</t>
+  </si>
+  <si>
+    <t>9.4900</t>
+  </si>
+  <si>
+    <t>Net-(U3-MP),Net-(U3-SWIN),/AUDIO_CH2,/DAC_CLK,Net-(U3-AOUT),+5VA,Net-(U3-CV),unconnected-(U3-TST2-Pad15),GND,/SMPAC,/SMPBD,/DOAB,/AUDIO_CH1</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>YAC512</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO:SOP-16_4.55x10.3mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-41.5280</t>
-  </si>
-  <si>
-    <t>-8.6820</t>
-  </si>
-  <si>
-    <t>8.1000</t>
-  </si>
-  <si>
-    <t>9.4900</t>
-  </si>
-  <si>
-    <t>/DAC_CLK,/SMPAC,Net-(U3-AOUT),Net-(U3-MP),/SMPBD,/AUDIO_CH2,/AUDIO_CH1,Net-(U3-SWIN),+5VA,GND,Net-(U3-CV),/DOAB,unconnected-(U3-TST2-Pad15)</t>
-  </si>
-  <si>
-    <t>DOAB,unconnected-(U3-TST2-Pad15)</t>
+    <t>YMF262</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOP-24_7.5x15.4mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Package_SO:SOP-24_7.5x15.4mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>-39.0280</t>
+  </si>
+  <si>
+    <t>-20.6820</t>
+  </si>
+  <si>
+    <t>11.3000</t>
+  </si>
+  <si>
+    <t>14.5200</t>
+  </si>
+  <si>
+    <t>/D0,/DAC_CLK,unconnected-(U2-DOCD-Pad22),/~{WR},/~{CS},/SMPAC,/D3,unconnected-(U2-TEST-Pad9),/D6,/D5,/D1,/D7,unconnected-(U2-~{IRQ}-Pad2),/A1,/~{RD},/~{RESET},/SMPBD,/D2,/D4,GND,/A0,/DOAB,/CLK,VCC</t>
+  </si>
+  <si>
+    <t>CLK,VCC</t>
   </si>
   <si>
     <t>22</t>
-  </si>
-  <si>
-    <t>YMF262</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SOP-24_7.5x15.4mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>Package_SO:SOP-24_7.5x15.4mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>-39.0280</t>
-  </si>
-  <si>
-    <t>-20.6820</t>
-  </si>
-  <si>
-    <t>11.3000</t>
-  </si>
-  <si>
-    <t>14.5200</t>
-  </si>
-  <si>
-    <t>/~{RD},/D1,unconnected-(U2-DOCD-Pad22),/D3,/DOAB,/D6,/A1,/~{WR},/CLK,/SMPBD,/D0,/~{CS},/D7,/D5,VCC,/A0,/~{RESET},GND,unconnected-(U2-TEST-Pad9),/DAC_CLK,/SMPAC,/D2,unconnected-(U2-~{IRQ}-Pad2),/D4</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>3.3V HCMOS SMD Crystal Clock Oscillator, Abracon</t>
@@ -1375,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF31"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1420,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1454,55 +1445,55 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F2" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1510,13 +1501,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -2213,19 +2204,19 @@
         <v>92</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>38</v>
@@ -2234,10 +2225,10 @@
         <v>39</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>40</v>
@@ -2249,7 +2240,7 @@
         <v>42</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>44</v>
@@ -2267,10 +2258,10 @@
         <v>97</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>49</v>
@@ -2294,39 +2285,39 @@
         <v>92</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AF15" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>39</v>
@@ -2359,10 +2350,10 @@
         <v>44</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>82</v>
@@ -2383,19 +2374,19 @@
         <v>51</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE16" s="10" t="s">
         <v>55</v>
@@ -2404,30 +2395,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -2457,43 +2448,43 @@
         <v>44</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="Y17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>55</v>
@@ -2502,30 +2493,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="30" customHeight="1">
+    <row r="18" spans="1:32" ht="45" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>32</v>
@@ -2555,13 +2546,13 @@
         <v>44</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>91</v>
@@ -2570,28 +2561,28 @@
         <v>49</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Y18" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AE18" s="10" t="s">
         <v>55</v>
@@ -2600,30 +2591,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="45" customHeight="1">
+    <row r="19" spans="1:32">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>32</v>
@@ -2653,43 +2644,43 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="Y19" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>55</v>
@@ -2700,28 +2691,28 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2751,16 +2742,16 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="V20" s="11" t="s">
         <v>49</v>
@@ -2781,13 +2772,13 @@
         <v>53</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>55</v>
@@ -2796,30 +2787,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" ht="165" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2849,43 +2840,43 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="Y21" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>55</v>
@@ -2894,30 +2885,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="180" customHeight="1">
+    <row r="22" spans="1:32">
       <c r="A22" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2947,13 +2938,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>69</v>
@@ -2962,28 +2953,28 @@
         <v>49</v>
       </c>
       <c r="W22" s="11" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="Y22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z22" s="11" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="AA22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="AB22" s="10" t="s">
-        <v>157</v>
-      </c>
       <c r="AC22" s="10" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>55</v>
@@ -2994,34 +2985,34 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="I23" s="5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>40</v>
@@ -3033,28 +3024,28 @@
         <v>42</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P23" s="8" t="s">
-        <v>44</v>
+      <c r="P23" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="Q23" s="8" t="s">
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>49</v>
@@ -3075,51 +3066,51 @@
         <v>53</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AF23" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>40</v>
@@ -3131,7 +3122,7 @@
         <v>42</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="O24" s="12" t="s">
         <v>44</v>
@@ -3143,16 +3134,16 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>49</v>
@@ -3173,51 +3164,51 @@
         <v>53</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>40</v>
@@ -3229,7 +3220,7 @@
         <v>42</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>44</v>
@@ -3241,16 +3232,16 @@
         <v>44</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>49</v>
@@ -3271,81 +3262,81 @@
         <v>53</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AF25" s="7" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" ht="45" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>41</v>
+      <c r="L26" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>42</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="P26" s="11" t="s">
-        <v>60</v>
+      <c r="P26" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="Q26" s="12" t="s">
         <v>44</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>69</v>
@@ -3363,51 +3354,51 @@
         <v>51</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="AB26" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC26" s="10" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="AD26" s="10" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="AE26" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AF26" s="11" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="45" customHeight="1">
+    <row r="27" spans="1:32" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>32</v>
@@ -3419,7 +3410,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>42</v>
@@ -3437,13 +3428,13 @@
         <v>44</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>69</v>
@@ -3461,19 +3452,19 @@
         <v>51</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="AA27" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB27" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AB27" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="AC27" s="6" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AE27" s="6" t="s">
         <v>55</v>
@@ -3484,28 +3475,28 @@
     </row>
     <row r="28" spans="1:32" ht="45" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>215</v>
+        <v>225</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3516,8 +3507,8 @@
       <c r="K28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>220</v>
+      <c r="L28" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="M28" s="11" t="s">
         <v>42</v>
@@ -3535,13 +3526,13 @@
         <v>44</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>69</v>
@@ -3559,19 +3550,19 @@
         <v>51</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AA28" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB28" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="AB28" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="AC28" s="10" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>55</v>
@@ -3580,30 +3571,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="45" customHeight="1">
+    <row r="29" spans="1:32" ht="75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>32</v>
@@ -3633,13 +3624,13 @@
         <v>44</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -3657,19 +3648,19 @@
         <v>51</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AA29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB29" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="AB29" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="AC29" s="6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AE29" s="6" t="s">
         <v>55</v>
@@ -3678,30 +3669,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="60" customHeight="1">
+    <row r="30" spans="1:32">
       <c r="A30" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>44</v>
+        <v>247</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3712,8 +3703,8 @@
       <c r="K30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>44</v>
+      <c r="L30" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>42</v>
@@ -3731,16 +3722,16 @@
         <v>44</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="V30" s="11" t="s">
         <v>49</v>
@@ -3755,122 +3746,24 @@
         <v>51</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="AA30" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB30" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="AB30" s="10" t="s">
-        <v>239</v>
-      </c>
       <c r="AC30" s="10" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AD30" s="10" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AE30" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AF30" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32">
-      <c r="A31" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="T31" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="U31" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="V31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z31" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF31" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3897,27 +3790,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-ymf262-bom.xlsx
+++ b/BoM/Positional/rcbus-ymf262-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="283">
   <si>
     <t>Row</t>
   </si>
@@ -209,405 +209,408 @@
     <t>12.8180</t>
   </si>
   <si>
+    <t>Net-(U4C--),/L</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C9 C10</t>
+  </si>
+  <si>
+    <t>2.7nf</t>
+  </si>
+  <si>
+    <t>-40.0280</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>/AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C17 C18</t>
+  </si>
+  <si>
+    <t>3.9nF</t>
+  </si>
+  <si>
+    <t>-18.2780</t>
+  </si>
+  <si>
+    <t>10.3180</t>
+  </si>
+  <si>
+    <t>Net-(C17-Pad1),GND</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>-26.3606</t>
+  </si>
+  <si>
+    <t>-16.0501</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>VCC,GND</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C1 C3 C6 C7 C12 C19</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(6)</t>
+  </si>
+  <si>
+    <t>-49.2780</t>
+  </si>
+  <si>
+    <t>-25.4320</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(3)</t>
+  </si>
+  <si>
+    <t>-44.0280</t>
+  </si>
+  <si>
+    <t>-0.0445</t>
+  </si>
+  <si>
+    <t>Net-(U3-CV),GND</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C4 C5</t>
+  </si>
+  <si>
+    <t>C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>-15.3606</t>
+  </si>
+  <si>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),GND</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>electrified</t>
+  </si>
+  <si>
+    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>-11.4590</t>
+  </si>
+  <si>
+    <t>6.2230</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>11.8000</t>
+  </si>
+  <si>
+    <t>,Net-(C17-Pad1),Net-(C18-Pad1),GND</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-95.5280</t>
+  </si>
+  <si>
+    <t>-24.8420</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>VCC,Net-(JP1-Pin_11),Net-(JP1-Pin_9),Net-(JP1-Pin_3),Net-(JP1-Pin_1),Net-(JP1-Pin_7),Net-(JP1-Pin_5)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>33uH</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>-9.8606</t>
+  </si>
+  <si>
+    <t>+5VA,Net-(C3-Pad1)</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>BLM18PG221SN1D</t>
+  </si>
+  <si>
+    <t>-23.7356</t>
+  </si>
+  <si>
+    <t>-11.0501</t>
+  </si>
+  <si>
+    <t>VCC,Net-(C3-Pad1)</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x39</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>RC2014 BUS</t>
+  </si>
+  <si>
+    <t>PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-98.5280</t>
+  </si>
+  <si>
+    <t>-31.6820</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>98.2200</t>
+  </si>
+  <si>
+    <t>/A4,GND,/D1,/D7,/D0,/A1,unconnected-(P1-Pin_7-Pad7),VCC,unconnected-(P1-Pin_39-Pad39),/A3,unconnected-(P1-Pin_19-Pad19),/D5,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_1-Pad1),/A5,/A7,/D3,unconnected-(P1-Pin_38-Pad38),/D2,/~{RD},/A2,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_4-Pad4),/~{INT},/~{WR},unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_6-Pad6),/A0,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_36-Pad36),/~{IORQ},/D4,unconnected-(P1-Pin_23-Pad23),/D6,unconnected-(P1-Pin_3-Pad3),/~{RESET},/A6</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>-38.2780</t>
+  </si>
+  <si>
+    <t>-0.0945</t>
+  </si>
+  <si>
+    <t>Net-(U4B--),Net-(U3-SWIN)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>R10 R11</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>-23.5280</t>
+  </si>
+  <si>
+    <t>10.0680</t>
+  </si>
+  <si>
+    <t>Net-(C15-Pad2),Net-(C17-Pad1)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R1 R2 R3 R4 R5 R6</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>-86.3905</t>
+  </si>
+  <si>
+    <t>-12.1520</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_11),GND</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>R8 R9</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>-37.7780</t>
+  </si>
+  <si>
     <t>/L,Net-(U4C--)</t>
   </si>
   <si>
     <t>L,Net-(U4C--)</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C9 C10</t>
-  </si>
-  <si>
-    <t>2.7nf</t>
-  </si>
-  <si>
-    <t>-40.0280</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>/AUDIO_CH2,GND</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2,GND</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C17 C18</t>
-  </si>
-  <si>
-    <t>3.9nF</t>
-  </si>
-  <si>
-    <t>-18.2780</t>
-  </si>
-  <si>
-    <t>10.3180</t>
-  </si>
-  <si>
-    <t>Net-(C17-Pad1),GND</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>-26.3606</t>
-  </si>
-  <si>
-    <t>-16.0501</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GND,VCC</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C1 C3 C6 C7 C12 C19</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(6)</t>
-  </si>
-  <si>
-    <t>-49.2780</t>
-  </si>
-  <si>
-    <t>-25.4320</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C8 C15 C16</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(3)</t>
-  </si>
-  <si>
-    <t>-44.0280</t>
-  </si>
-  <si>
-    <t>-0.0445</t>
-  </si>
-  <si>
-    <t>Net-(U3-CV),GND</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C4 C5</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>-15.3606</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),GND</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>electrified</t>
-  </si>
-  <si>
-    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>-11.4590</t>
-  </si>
-  <si>
-    <t>6.2230</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>9.3500</t>
-  </si>
-  <si>
-    <t>11.8000</t>
-  </si>
-  <si>
-    <t>,Net-(C17-Pad1),Net-(C18-Pad1),GND</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-95.5280</t>
-  </si>
-  <si>
-    <t>-24.8420</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_5),Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_9),Net-(JP1-Pin_11),Net-(JP1-Pin_3),VCC</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>33uH</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>Inductor_SMD:L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>-9.8606</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),+5VA</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>BLM18PG221SN1D</t>
-  </si>
-  <si>
-    <t>-23.7356</t>
-  </si>
-  <si>
-    <t>-11.0501</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),VCC</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x39</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>RC2014 BUS</t>
-  </si>
-  <si>
-    <t>PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-98.5280</t>
-  </si>
-  <si>
-    <t>-31.6820</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>98.2200</t>
-  </si>
-  <si>
-    <t>unconnected-(P1-Pin_8-Pad8),/~{IORQ},unconnected-(P1-Pin_39-Pad39),/D0,unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_3-Pad3),/A3,/~{WR},/D3,unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_37-Pad37),/D6,/~{INT},unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_38-Pad38),/A4,unconnected-(P1-Pin_21-Pad21),/D5,unconnected-(P1-Pin_23-Pad23),/D1,/D7,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_36-Pad36),/A1,/A2,/~{RD},/A6,/A7,/~{RESET},/D2,/A5,/D4,GND,/A0,unconnected-(P1-Pin_7-Pad7),VCC</t>
-  </si>
-  <si>
-    <t>A0,unconnected-(P1-Pin_7-Pad7),VCC</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>-38.2780</t>
-  </si>
-  <si>
-    <t>-0.0945</t>
-  </si>
-  <si>
-    <t>Net-(U3-SWIN),Net-(U4B--)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>R10 R11</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>-23.5280</t>
-  </si>
-  <si>
-    <t>10.0680</t>
-  </si>
-  <si>
-    <t>Net-(C17-Pad1),Net-(C15-Pad2)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>-86.3905</t>
-  </si>
-  <si>
-    <t>-12.1520</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_11),GND</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>R8 R9</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>-37.7780</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -647,10 +650,7 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/~{IORQ},Net-(JP1-Pin_5),/A5,Net-(JP1-Pin_9),Net-(JP1-Pin_7),Net-(JP1-Pin_1),/A3,/A2,/~{CS},/A6,/A7,GND,Net-(JP1-Pin_3),Net-(JP1-Pin_11),/A4,VCC</t>
-  </si>
-  <si>
-    <t>A4,VCC</t>
+    <t>VCC,/A2,Net-(JP1-Pin_11),Net-(JP1-Pin_9),/A4,GND,/A3,/~{IORQ},Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_5),/A5,/A7,/~{CS},/A6</t>
   </si>
   <si>
     <t>19</t>
@@ -689,10 +689,7 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>Net-(U3-MP),/AUDIO_CH2,Net-(U3-AOUT),+5VA,Net-(U4B--),/L,Net-(U3-CV),Net-(U4C--),/R,GND,/AUDIO_CH1,Net-(U4D--)</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,Net-(U4D--)</t>
+    <t>Net-(U4B--),Net-(U3-CV),Net-(U4C--),GND,/AUDIO_CH1,Net-(U4D--),/AUDIO_CH2,+5VA,Net-(U3-MP),Net-(U3-AOUT),/L,/R</t>
   </si>
   <si>
     <t>20</t>
@@ -722,10 +719,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>Net-(U3-MP),Net-(U3-SWIN),/AUDIO_CH2,/DAC_CLK,Net-(U3-AOUT),+5VA,Net-(U3-CV),unconnected-(U3-TST2-Pad15),GND,/SMPAC,/SMPBD,/DOAB,/AUDIO_CH1</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1</t>
+    <t>Net-(U3-SWIN),/AUDIO_CH1,Net-(U3-CV),GND,/DAC_CLK,/AUDIO_CH2,+5VA,/DOAB,Net-(U3-AOUT),/SMPBD,Net-(U3-MP),/SMPAC,unconnected-(U3-TST2-Pad15)</t>
+  </si>
+  <si>
+    <t>SMPAC,unconnected-(U3-TST2-Pad15)</t>
   </si>
   <si>
     <t>21</t>
@@ -755,10 +752,10 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/D0,/DAC_CLK,unconnected-(U2-DOCD-Pad22),/~{WR},/~{CS},/SMPAC,/D3,unconnected-(U2-TEST-Pad9),/D6,/D5,/D1,/D7,unconnected-(U2-~{IRQ}-Pad2),/A1,/~{RD},/~{RESET},/SMPBD,/D2,/D4,GND,/A0,/DOAB,/CLK,VCC</t>
-  </si>
-  <si>
-    <t>CLK,VCC</t>
+    <t>/D1,GND,/D7,unconnected-(U2-DOCD-Pad22),/D0,/A1,/SMPBD,VCC,/DAC_CLK,/D5,/DOAB,/D3,/~{CS},/D2,/~{RD},/~{WR},unconnected-(U2-~{IRQ}-Pad2),/A0,/D4,/D6,/CLK,/SMPAC,unconnected-(U2-TEST-Pad9),/~{RESET}</t>
+  </si>
+  <si>
+    <t>~{RESET}</t>
   </si>
   <si>
     <t>22</t>
@@ -800,10 +797,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>/CLK,GND,VCC</t>
-  </si>
-  <si>
-    <t>CLK,GND,VCC</t>
+    <t>VCC,/CLK,GND</t>
+  </si>
+  <si>
+    <t>CLK,GND</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -824,13 +821,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>@version@</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>@date@</t>
+    <t>${DATE}</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1411,7 +1408,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1445,13 +1442,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3">
         <v>22</v>
@@ -1459,41 +1456,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1501,13 +1498,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -2599,22 +2596,22 @@
         <v>139</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>32</v>
@@ -2644,10 +2641,10 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="S19" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>82</v>
@@ -2677,10 +2674,10 @@
         <v>138</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>55</v>
@@ -2691,28 +2688,28 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="G20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2742,13 +2739,13 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S20" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="T20" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>91</v>
@@ -2772,13 +2769,13 @@
         <v>53</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>55</v>
@@ -2787,27 +2784,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="165" customHeight="1">
+    <row r="21" spans="1:32" ht="180" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>116</v>
@@ -2840,13 +2837,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="S21" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="T21" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>69</v>
@@ -2864,19 +2861,19 @@
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA21" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AA21" s="7" t="s">
+      <c r="AB21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC21" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AD21" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>55</v>
@@ -2887,28 +2884,28 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2938,13 +2935,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="S22" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="S22" s="11" t="s">
+      <c r="T22" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>69</v>
@@ -2968,13 +2965,13 @@
         <v>53</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>55</v>
@@ -2985,28 +2982,28 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="G23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>56</v>
@@ -3036,13 +3033,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="T23" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>48</v>
@@ -3066,13 +3063,13 @@
         <v>53</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>55</v>
@@ -3083,28 +3080,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="G24" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>85</v>
@@ -3134,13 +3131,13 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="T24" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>91</v>
@@ -3164,13 +3161,13 @@
         <v>53</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>55</v>
@@ -3181,28 +3178,28 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="G25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>56</v>
@@ -3232,10 +3229,10 @@
         <v>44</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>62</v>
@@ -3262,13 +3259,13 @@
         <v>53</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>55</v>
@@ -3279,28 +3276,28 @@
     </row>
     <row r="26" spans="1:32" ht="45" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>198</v>
-      </c>
       <c r="G26" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>32</v>
@@ -3312,7 +3309,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>42</v>
@@ -3330,13 +3327,13 @@
         <v>44</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>69</v>
@@ -3354,19 +3351,19 @@
         <v>51</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AB26" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AC26" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AD26" s="10" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="AE26" s="10" t="s">
         <v>55</v>
@@ -3398,7 +3395,7 @@
         <v>216</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>32</v>
@@ -3464,7 +3461,7 @@
         <v>223</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="AE27" s="6" t="s">
         <v>55</v>
@@ -3475,28 +3472,28 @@
     </row>
     <row r="28" spans="1:32" ht="45" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>226</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>228</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3526,13 +3523,13 @@
         <v>44</v>
       </c>
       <c r="R28" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>69</v>
@@ -3550,19 +3547,19 @@
         <v>51</v>
       </c>
       <c r="Z28" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA28" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AB28" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC28" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="AB28" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC28" s="10" t="s">
+      <c r="AD28" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="AD28" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>55</v>
@@ -3571,30 +3568,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="75" customHeight="1">
+    <row r="29" spans="1:32" ht="60" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>32</v>
@@ -3624,13 +3621,13 @@
         <v>44</v>
       </c>
       <c r="R29" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S29" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="T29" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -3648,19 +3645,19 @@
         <v>51</v>
       </c>
       <c r="Z29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA29" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="AA29" s="7" t="s">
+      <c r="AB29" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC29" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="AB29" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC29" s="6" t="s">
+      <c r="AD29" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="AE29" s="6" t="s">
         <v>55</v>
@@ -3671,28 +3668,28 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>253</v>
-      </c>
       <c r="H30" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3704,7 +3701,7 @@
         <v>40</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>42</v>
@@ -3722,13 +3719,13 @@
         <v>44</v>
       </c>
       <c r="R30" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="S30" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="T30" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="U30" s="11" t="s">
         <v>83</v>
@@ -3746,19 +3743,19 @@
         <v>51</v>
       </c>
       <c r="Z30" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA30" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AA30" s="11" t="s">
+      <c r="AB30" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC30" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AB30" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC30" s="10" t="s">
+      <c r="AD30" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="AD30" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="AE30" s="10" t="s">
         <v>55</v>
@@ -3790,27 +3787,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-ymf262-bom.xlsx
+++ b/BoM/Positional/rcbus-ymf262-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="281">
   <si>
     <t>Row</t>
   </si>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(U3-AOUT),GND</t>
+    <t>GND,Net-(U3-AOUT)</t>
   </si>
   <si>
     <t>Default</t>
@@ -209,237 +209,240 @@
     <t>12.8180</t>
   </si>
   <si>
-    <t>Net-(U4C--),/L</t>
+    <t>/L,Net-(U4C--)</t>
+  </si>
+  <si>
+    <t>L,Net-(U4C--)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C9 C10</t>
+  </si>
+  <si>
+    <t>2.7nf</t>
+  </si>
+  <si>
+    <t>-40.0280</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>GND,/AUDIO_CH2</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C17 C18</t>
+  </si>
+  <si>
+    <t>3.9nF</t>
+  </si>
+  <si>
+    <t>-18.2780</t>
+  </si>
+  <si>
+    <t>10.3180</t>
+  </si>
+  <si>
+    <t>Net-(C17-Pad1),GND</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>-26.3606</t>
+  </si>
+  <si>
+    <t>-16.0501</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>GND,VCC</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C1 C3 C6 C7 C12 C19</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(6)</t>
+  </si>
+  <si>
+    <t>-49.2780</t>
+  </si>
+  <si>
+    <t>-25.4320</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(3)</t>
+  </si>
+  <si>
+    <t>-44.0280</t>
+  </si>
+  <si>
+    <t>-0.0445</t>
+  </si>
+  <si>
+    <t>GND,Net-(U3-CV)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>C4 C5</t>
+  </si>
+  <si>
+    <t>C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>-15.3606</t>
+  </si>
+  <si>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),GND</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>electrified</t>
+  </si>
+  <si>
+    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>-11.4590</t>
+  </si>
+  <si>
+    <t>6.2230</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>11.8000</t>
+  </si>
+  <si>
+    <t>,Net-(C17-Pad1),GND,Net-(C18-Pad1)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-95.5280</t>
+  </si>
+  <si>
+    <t>-24.8420</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_11),Net-(JP1-Pin_3),Net-(JP1-Pin_1),Net-(JP1-Pin_9),Net-(JP1-Pin_7),Net-(JP1-Pin_5),VCC</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Inductor</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C9 C10</t>
-  </si>
-  <si>
-    <t>2.7nf</t>
-  </si>
-  <si>
-    <t>-40.0280</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>/AUDIO_CH2,GND</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2,GND</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C17 C18</t>
-  </si>
-  <si>
-    <t>3.9nF</t>
-  </si>
-  <si>
-    <t>-18.2780</t>
-  </si>
-  <si>
-    <t>10.3180</t>
-  </si>
-  <si>
-    <t>Net-(C17-Pad1),GND</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>-26.3606</t>
-  </si>
-  <si>
-    <t>-16.0501</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>VCC,GND</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C1 C3 C6 C7 C12 C19</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(6)</t>
-  </si>
-  <si>
-    <t>-49.2780</t>
-  </si>
-  <si>
-    <t>-25.4320</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C8 C15 C16</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(3)</t>
-  </si>
-  <si>
-    <t>-44.0280</t>
-  </si>
-  <si>
-    <t>-0.0445</t>
-  </si>
-  <si>
-    <t>Net-(U3-CV),GND</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C4 C5</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>-15.3606</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),GND</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>electrified</t>
-  </si>
-  <si>
-    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>-11.4590</t>
-  </si>
-  <si>
-    <t>6.2230</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>9.3500</t>
-  </si>
-  <si>
-    <t>11.8000</t>
-  </si>
-  <si>
-    <t>,Net-(C17-Pad1),Net-(C18-Pad1),GND</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-95.5280</t>
-  </si>
-  <si>
-    <t>-24.8420</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>VCC,Net-(JP1-Pin_11),Net-(JP1-Pin_9),Net-(JP1-Pin_3),Net-(JP1-Pin_1),Net-(JP1-Pin_7),Net-(JP1-Pin_5)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -458,7 +461,7 @@
     <t>-9.8606</t>
   </si>
   <si>
-    <t>+5VA,Net-(C3-Pad1)</t>
+    <t>Net-(C3-Pad1),+5VA</t>
   </si>
   <si>
     <t>12</t>
@@ -476,7 +479,7 @@
     <t>-11.0501</t>
   </si>
   <si>
-    <t>VCC,Net-(C3-Pad1)</t>
+    <t>Net-(C3-Pad1),VCC</t>
   </si>
   <si>
     <t>13</t>
@@ -512,7 +515,7 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>/A4,GND,/D1,/D7,/D0,/A1,unconnected-(P1-Pin_7-Pad7),VCC,unconnected-(P1-Pin_39-Pad39),/A3,unconnected-(P1-Pin_19-Pad19),/D5,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_1-Pad1),/A5,/A7,/D3,unconnected-(P1-Pin_38-Pad38),/D2,/~{RD},/A2,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_4-Pad4),/~{INT},/~{WR},unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_6-Pad6),/A0,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_36-Pad36),/~{IORQ},/D4,unconnected-(P1-Pin_23-Pad23),/D6,unconnected-(P1-Pin_3-Pad3),/~{RESET},/A6</t>
+    <t>unconnected-(P1-Pin_6-Pad6),/A1,/A0,/D2,unconnected-(P1-Pin_7-Pad7),/D4,/~{INT},VCC,/~{RESET},unconnected-(P1-Pin_4-Pad4),unconnected-(P1-Pin_38-Pad38),/A3,unconnected-(P1-Pin_39-Pad39),/~{IORQ},/A4,/D3,unconnected-(P1-Pin_8-Pad8),/D6,/A7,/~{RD},unconnected-(P1-Pin_19-Pad19),/D1,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_3-Pad3),/D5,unconnected-(P1-Pin_5-Pad5),/~{WR},/D0,GND,/D7,/A2,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_35-Pad35),/A5,unconnected-(P1-Pin_23-Pad23),/A6</t>
   </si>
   <si>
     <t>A6</t>
@@ -548,7 +551,7 @@
     <t>-0.0945</t>
   </si>
   <si>
-    <t>Net-(U4B--),Net-(U3-SWIN)</t>
+    <t>Net-(U3-SWIN),Net-(U4B--)</t>
   </si>
   <si>
     <t>15</t>
@@ -605,12 +608,6 @@
     <t>-37.7780</t>
   </si>
   <si>
-    <t>/L,Net-(U4C--)</t>
-  </si>
-  <si>
-    <t>L,Net-(U4C--)</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -650,7 +647,7 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>VCC,/A2,Net-(JP1-Pin_11),Net-(JP1-Pin_9),/A4,GND,/A3,/~{IORQ},Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_1),Net-(JP1-Pin_5),/A5,/A7,/~{CS},/A6</t>
+    <t>/A7,Net-(JP1-Pin_11),/A2,Net-(JP1-Pin_3),/A3,/~{CS},Net-(JP1-Pin_9),Net-(JP1-Pin_1),/~{IORQ},Net-(JP1-Pin_7),VCC,Net-(JP1-Pin_5),/A5,GND,/A4,/A6</t>
   </si>
   <si>
     <t>19</t>
@@ -689,7 +686,7 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>Net-(U4B--),Net-(U3-CV),Net-(U4C--),GND,/AUDIO_CH1,Net-(U4D--),/AUDIO_CH2,+5VA,Net-(U3-MP),Net-(U3-AOUT),/L,/R</t>
+    <t>Net-(U4D--),Net-(U3-AOUT),/R,Net-(U3-MP),Net-(U4B--),+5VA,Net-(U4C--),/AUDIO_CH1,/L,GND,Net-(U3-CV),/AUDIO_CH2</t>
   </si>
   <si>
     <t>20</t>
@@ -719,10 +716,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>Net-(U3-SWIN),/AUDIO_CH1,Net-(U3-CV),GND,/DAC_CLK,/AUDIO_CH2,+5VA,/DOAB,Net-(U3-AOUT),/SMPBD,Net-(U3-MP),/SMPAC,unconnected-(U3-TST2-Pad15)</t>
-  </si>
-  <si>
-    <t>SMPAC,unconnected-(U3-TST2-Pad15)</t>
+    <t>Net-(U3-SWIN),Net-(U3-AOUT),Net-(U3-MP),unconnected-(U3-TST2-Pad15),+5VA,/SMPBD,/SMPAC,/AUDIO_CH1,/DOAB,GND,Net-(U3-CV),/AUDIO_CH2,/DAC_CLK</t>
+  </si>
+  <si>
+    <t>DAC_CLK</t>
   </si>
   <si>
     <t>21</t>
@@ -752,10 +749,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/D1,GND,/D7,unconnected-(U2-DOCD-Pad22),/D0,/A1,/SMPBD,VCC,/DAC_CLK,/D5,/DOAB,/D3,/~{CS},/D2,/~{RD},/~{WR},unconnected-(U2-~{IRQ}-Pad2),/A0,/D4,/D6,/CLK,/SMPAC,unconnected-(U2-TEST-Pad9),/~{RESET}</t>
-  </si>
-  <si>
-    <t>~{RESET}</t>
+    <t>unconnected-(U2-TEST-Pad9),/A1,/A0,/D2,/D4,unconnected-(U2-DOCD-Pad22),VCC,/CLK,/~{RESET},/DOAB,/D3,/D6,/~{RD},/D1,/D5,unconnected-(U2-~{IRQ}-Pad2),/~{WR},/D0,GND,/D7,/SMPBD,/SMPAC,/~{CS},/DAC_CLK</t>
   </si>
   <si>
     <t>22</t>
@@ -797,10 +791,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>VCC,/CLK,GND</t>
-  </si>
-  <si>
-    <t>CLK,GND</t>
+    <t>GND,VCC,/CLK</t>
+  </si>
+  <si>
+    <t>CLK</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -1408,7 +1402,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1442,13 +1436,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2" s="3">
         <v>22</v>
@@ -1456,41 +1450,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1498,13 +1492,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -2201,19 +2195,19 @@
         <v>92</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>38</v>
@@ -2237,7 +2231,7 @@
         <v>42</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>44</v>
@@ -2252,10 +2246,10 @@
         <v>45</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>48</v>
@@ -2282,10 +2276,10 @@
         <v>92</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>55</v>
@@ -2296,13 +2290,13 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>35</v>
@@ -2311,7 +2305,7 @@
         <v>102</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>103</v>
@@ -2377,7 +2371,7 @@
         <v>107</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC16" s="10" t="s">
         <v>108</v>
@@ -2596,22 +2590,22 @@
         <v>139</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>32</v>
@@ -2641,10 +2635,10 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>82</v>
@@ -2674,10 +2668,10 @@
         <v>138</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>55</v>
@@ -2688,28 +2682,28 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2739,13 +2733,13 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>91</v>
@@ -2769,13 +2763,13 @@
         <v>53</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>55</v>
@@ -2784,27 +2778,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="180" customHeight="1">
+    <row r="21" spans="1:32" ht="165" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>116</v>
@@ -2837,13 +2831,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>69</v>
@@ -2861,19 +2855,19 @@
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>55</v>
@@ -2884,28 +2878,28 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2935,13 +2929,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>69</v>
@@ -2965,13 +2959,13 @@
         <v>53</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>55</v>
@@ -2982,28 +2976,28 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>56</v>
@@ -3033,13 +3027,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>48</v>
@@ -3063,13 +3057,13 @@
         <v>53</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>55</v>
@@ -3080,28 +3074,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>85</v>
@@ -3131,16 +3125,16 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>49</v>
@@ -3161,13 +3155,13 @@
         <v>53</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>55</v>
@@ -3178,28 +3172,28 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>56</v>
@@ -3229,10 +3223,10 @@
         <v>44</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>62</v>
@@ -3259,13 +3253,13 @@
         <v>53</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>55</v>
@@ -3276,28 +3270,28 @@
     </row>
     <row r="26" spans="1:32" ht="45" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>32</v>
@@ -3309,7 +3303,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>42</v>
@@ -3327,13 +3321,13 @@
         <v>44</v>
       </c>
       <c r="R26" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="S26" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="T26" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>69</v>
@@ -3351,19 +3345,19 @@
         <v>51</v>
       </c>
       <c r="Z26" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA26" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AB26" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC26" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AB26" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC26" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="AD26" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AE26" s="10" t="s">
         <v>55</v>
@@ -3374,28 +3368,28 @@
     </row>
     <row r="27" spans="1:32" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>32</v>
@@ -3407,7 +3401,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>42</v>
@@ -3425,13 +3419,13 @@
         <v>44</v>
       </c>
       <c r="R27" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="T27" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>69</v>
@@ -3449,19 +3443,19 @@
         <v>51</v>
       </c>
       <c r="Z27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA27" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="AA27" s="7" t="s">
+      <c r="AB27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC27" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AB27" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC27" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="AD27" s="6" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="AE27" s="6" t="s">
         <v>55</v>
@@ -3472,28 +3466,28 @@
     </row>
     <row r="28" spans="1:32" ht="45" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>227</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3523,13 +3517,13 @@
         <v>44</v>
       </c>
       <c r="R28" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>69</v>
@@ -3547,19 +3541,19 @@
         <v>51</v>
       </c>
       <c r="Z28" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA28" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AB28" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC28" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="AB28" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC28" s="10" t="s">
+      <c r="AD28" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="AD28" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>55</v>
@@ -3568,30 +3562,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="60" customHeight="1">
+    <row r="29" spans="1:32" ht="75" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>32</v>
@@ -3621,13 +3615,13 @@
         <v>44</v>
       </c>
       <c r="R29" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="S29" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="T29" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -3645,19 +3639,19 @@
         <v>51</v>
       </c>
       <c r="Z29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA29" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="AA29" s="7" t="s">
+      <c r="AB29" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC29" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="AB29" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="AD29" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AE29" s="6" t="s">
         <v>55</v>
@@ -3668,28 +3662,28 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="H30" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3701,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>42</v>
@@ -3719,13 +3713,13 @@
         <v>44</v>
       </c>
       <c r="R30" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="T30" s="11" t="s">
         <v>254</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>256</v>
       </c>
       <c r="U30" s="11" t="s">
         <v>83</v>
@@ -3743,19 +3737,19 @@
         <v>51</v>
       </c>
       <c r="Z30" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC30" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AA30" s="11" t="s">
+      <c r="AD30" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="AB30" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC30" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD30" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="AE30" s="10" t="s">
         <v>55</v>
@@ -3787,27 +3781,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-ymf262-bom.xlsx
+++ b/BoM/Positional/rcbus-ymf262-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="283">
   <si>
     <t>Row</t>
   </si>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U3-AOUT)</t>
+    <t>Net-(U3-AOUT),GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -209,237 +209,240 @@
     <t>12.8180</t>
   </si>
   <si>
-    <t>Net-(U4C--),/L</t>
+    <t>/L,Net-(U4C--)</t>
+  </si>
+  <si>
+    <t>L,Net-(U4C--)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C9 C10</t>
+  </si>
+  <si>
+    <t>2.7nf</t>
+  </si>
+  <si>
+    <t>-40.0280</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>/AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>AUDIO_CH2,GND</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>C17 C18</t>
+  </si>
+  <si>
+    <t>3.9nF</t>
+  </si>
+  <si>
+    <t>-18.2780</t>
+  </si>
+  <si>
+    <t>10.3180</t>
+  </si>
+  <si>
+    <t>Net-(C17-Pad1),GND</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>-79.0280</t>
+  </si>
+  <si>
+    <t>-5.6820</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>VCC,GND</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C1 C3 C6 C7 C12 C19</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(6)</t>
+  </si>
+  <si>
+    <t>-49.2780</t>
+  </si>
+  <si>
+    <t>-25.4320</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(3)</t>
+  </si>
+  <si>
+    <t>-44.0280</t>
+  </si>
+  <si>
+    <t>-0.0445</t>
+  </si>
+  <si>
+    <t>Net-(U3-CV),GND</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>C4 C5</t>
+  </si>
+  <si>
+    <t>C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>-68.0280</t>
+  </si>
+  <si>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),GND</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>electrified</t>
+  </si>
+  <si>
+    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>-11.4590</t>
+  </si>
+  <si>
+    <t>6.2230</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>11.8000</t>
+  </si>
+  <si>
+    <t>,GND,Net-(C18-Pad1),Net-(C17-Pad1)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-95.5280</t>
+  </si>
+  <si>
+    <t>-24.8420</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_9),Net-(JP1-Pin_11),VCC,Net-(JP1-Pin_5),Net-(JP1-Pin_1)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Inductor</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C9 C10</t>
-  </si>
-  <si>
-    <t>2.7nf</t>
-  </si>
-  <si>
-    <t>-40.0280</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>/AUDIO_CH2,GND</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2,GND</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>C17 C18</t>
-  </si>
-  <si>
-    <t>3.9nF</t>
-  </si>
-  <si>
-    <t>-18.2780</t>
-  </si>
-  <si>
-    <t>10.3180</t>
-  </si>
-  <si>
-    <t>GND,Net-(C17-Pad1)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>-79.0280</t>
-  </si>
-  <si>
-    <t>-5.6820</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>GND,VCC</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C1 C3 C6 C7 C12 C19</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(6)</t>
-  </si>
-  <si>
-    <t>-49.2780</t>
-  </si>
-  <si>
-    <t>-25.4320</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C8 C15 C16</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(3)</t>
-  </si>
-  <si>
-    <t>-44.0280</t>
-  </si>
-  <si>
-    <t>-0.0445</t>
-  </si>
-  <si>
-    <t>GND,Net-(U3-CV)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>C4 C5</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>-68.0280</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>GND,Net-(C3-Pad1)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>electrified</t>
-  </si>
-  <si>
-    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>-11.4590</t>
-  </si>
-  <si>
-    <t>6.2230</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>9.3500</t>
-  </si>
-  <si>
-    <t>11.8000</t>
-  </si>
-  <si>
-    <t>,GND,Net-(C18-Pad1),Net-(C17-Pad1)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-95.5280</t>
-  </si>
-  <si>
-    <t>-24.8420</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_11),Net-(JP1-Pin_9),VCC,Net-(JP1-Pin_3),Net-(JP1-Pin_1),Net-(JP1-Pin_5),Net-(JP1-Pin_7)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -458,7 +461,7 @@
     <t>-62.5280</t>
   </si>
   <si>
-    <t>+5VA,Net-(C3-Pad1)</t>
+    <t>Net-(C3-Pad1),+5VA</t>
   </si>
   <si>
     <t>12</t>
@@ -476,7 +479,7 @@
     <t>-0.6820</t>
   </si>
   <si>
-    <t>VCC,Net-(C3-Pad1)</t>
+    <t>Net-(C3-Pad1),VCC</t>
   </si>
   <si>
     <t>13</t>
@@ -512,10 +515,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>/D5,unconnected-(P1-Pin_38-Pad38),/D3,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_21-Pad21),/A1,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_2-Pad2),/~{WR},/D2,/D6,/D0,/~{IORQ},/~{RESET},unconnected-(P1-Pin_4-Pad4),/A3,unconnected-(P1-Pin_6-Pad6),/D4,/A7,/D7,unconnected-(P1-Pin_8-Pad8),/A5,/~{RD},unconnected-(P1-Pin_23-Pad23),GND,VCC,unconnected-(P1-Pin_1-Pad1),/A6,/A0,unconnected-(P1-Pin_19-Pad19),/D1,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_7-Pad7),/A2,unconnected-(P1-Pin_3-Pad3),/A4,/~{INT},unconnected-(P1-Pin_36-Pad36)</t>
-  </si>
-  <si>
-    <t>~{INT},unconnected-(P1-Pin_36-Pad36)</t>
+    <t>/~{INT},/A3,/A2,unconnected-(P1-Pin_36-Pad36),/~{IORQ},unconnected-(P1-Pin_23-Pad23),/D5,/A0,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_8-Pad8),/D4,unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_37-Pad37),VCC,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_4-Pad4),/D2,GND,/D1,/A5,unconnected-(P1-Pin_21-Pad21),/~{WR},/~{RD},/D0,unconnected-(P1-Pin_35-Pad35),/A4,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_1-Pad1),/A6,unconnected-(P1-Pin_6-Pad6),/D3,unconnected-(P1-Pin_38-Pad38),/A7,/A1,/~{RESET},/D6,unconnected-(P1-Pin_7-Pad7),/D7</t>
+  </si>
+  <si>
+    <t>D7</t>
   </si>
   <si>
     <t>14</t>
@@ -548,7 +551,7 @@
     <t>-0.0945</t>
   </si>
   <si>
-    <t>Net-(U3-SWIN),Net-(U4B--)</t>
+    <t>Net-(U4B--),Net-(U3-SWIN)</t>
   </si>
   <si>
     <t>15</t>
@@ -566,7 +569,7 @@
     <t>10.0680</t>
   </si>
   <si>
-    <t>Net-(C15-Pad2),Net-(C17-Pad1)</t>
+    <t>Net-(C17-Pad1),Net-(C15-Pad2)</t>
   </si>
   <si>
     <t>16</t>
@@ -590,7 +593,7 @@
     <t>-12.1520</t>
   </si>
   <si>
-    <t>GND,Net-(JP1-Pin_11)</t>
+    <t>Net-(JP1-Pin_11),GND</t>
   </si>
   <si>
     <t>17</t>
@@ -605,12 +608,6 @@
     <t>-37.7780</t>
   </si>
   <si>
-    <t>/L,Net-(U4C--)</t>
-  </si>
-  <si>
-    <t>L,Net-(U4C--)</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -650,10 +647,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_11),Net-(JP1-Pin_9),GND,VCC,/~{IORQ},Net-(JP1-Pin_3),/A2,Net-(JP1-Pin_1),/A4,Net-(JP1-Pin_7),/A6,Net-(JP1-Pin_5),/A3,/A7,/~{CS},/A5</t>
-  </si>
-  <si>
-    <t>A5</t>
+    <t>/A3,Net-(JP1-Pin_3),/A2,Net-(JP1-Pin_7),GND,Net-(JP1-Pin_9),Net-(JP1-Pin_11),/A5,/~{IORQ},/A7,/~{CS},VCC,/A4,Net-(JP1-Pin_5),/A6,Net-(JP1-Pin_1)</t>
+  </si>
+  <si>
+    <t>A6,Net-(JP1-Pin_1)</t>
   </si>
   <si>
     <t>19</t>
@@ -692,10 +689,10 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>/AUDIO_CH2,Net-(U3-CV),/R,Net-(U4C--),+5VA,Net-(U4B--),GND,Net-(U3-MP),/L,Net-(U4D--),/AUDIO_CH1,Net-(U3-AOUT)</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,Net-(U3-AOUT)</t>
+    <t>Net-(U4B--),Net-(U4C--),+5VA,GND,Net-(U3-CV),/AUDIO_CH2,Net-(U4D--),/R,Net-(U3-AOUT),/L,Net-(U3-MP),/AUDIO_CH1</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1</t>
   </si>
   <si>
     <t>20</t>
@@ -725,10 +722,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>/AUDIO_CH2,/SMPAC,Net-(U3-CV),+5VA,GND,/SMPBD,Net-(U3-MP),/DAC_CLK,Net-(U3-SWIN),unconnected-(U3-TST2-Pad15),/AUDIO_CH1,Net-(U3-AOUT),/DOAB</t>
-  </si>
-  <si>
-    <t>DOAB</t>
+    <t>Net-(U3-SWIN),/SMPAC,GND,/DOAB,+5VA,/DAC_CLK,/AUDIO_CH2,unconnected-(U3-TST2-Pad15),Net-(U3-CV),/SMPBD,Net-(U3-AOUT),/AUDIO_CH1,Net-(U3-MP)</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1,Net-(U3-MP)</t>
   </si>
   <si>
     <t>21</t>
@@ -758,7 +755,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/D5,unconnected-(U2-TEST-Pad9),/D3,/SMPBD,/A1,unconnected-(U2-DOCD-Pad22),/DAC_CLK,/~{WR},/D2,/D6,/CLK,/SMPAC,/D0,/~{RESET},/D4,/D7,/~{RD},GND,VCC,/A0,/D1,/~{CS},unconnected-(U2-~{IRQ}-Pad2),/DOAB</t>
+    <t>/DOAB,/D5,/A0,/SMPAC,/DAC_CLK,/D4,unconnected-(U2-~{IRQ}-Pad2),unconnected-(U2-DOCD-Pad22),VCC,unconnected-(U2-TEST-Pad9),/D2,GND,/D1,/~{WR},/~{RD},/D0,/SMPBD,/CLK,/D3,/A1,/~{RESET},/~{CS},/D6,/D7</t>
   </si>
   <si>
     <t>22</t>
@@ -800,10 +797,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>/CLK,GND,VCC</t>
-  </si>
-  <si>
-    <t>CLK,GND,VCC</t>
+    <t>/CLK,VCC,GND</t>
+  </si>
+  <si>
+    <t>CLK,VCC,GND</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -1411,7 +1408,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1445,13 +1442,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="3">
         <v>22</v>
@@ -1459,41 +1456,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1501,13 +1498,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -2599,22 +2596,22 @@
         <v>139</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>32</v>
@@ -2644,10 +2641,10 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>82</v>
@@ -2677,10 +2674,10 @@
         <v>138</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>55</v>
@@ -2691,28 +2688,28 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2742,13 +2739,13 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>91</v>
@@ -2772,13 +2769,13 @@
         <v>53</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>55</v>
@@ -2789,25 +2786,25 @@
     </row>
     <row r="21" spans="1:32" ht="180" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>116</v>
@@ -2840,13 +2837,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>69</v>
@@ -2864,19 +2861,19 @@
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>55</v>
@@ -2887,28 +2884,28 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2938,13 +2935,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>69</v>
@@ -2968,13 +2965,13 @@
         <v>53</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>55</v>
@@ -2985,28 +2982,28 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>56</v>
@@ -3036,13 +3033,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>48</v>
@@ -3066,13 +3063,13 @@
         <v>53</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>55</v>
@@ -3083,28 +3080,28 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>85</v>
@@ -3134,13 +3131,13 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>83</v>
@@ -3164,13 +3161,13 @@
         <v>53</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>55</v>
@@ -3181,28 +3178,28 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>56</v>
@@ -3232,10 +3229,10 @@
         <v>44</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>62</v>
@@ -3262,13 +3259,13 @@
         <v>53</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>55</v>
@@ -3279,28 +3276,28 @@
     </row>
     <row r="26" spans="1:32" ht="45" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>32</v>
@@ -3312,7 +3309,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>42</v>
@@ -3330,13 +3327,13 @@
         <v>44</v>
       </c>
       <c r="R26" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="S26" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="T26" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>69</v>
@@ -3354,19 +3351,19 @@
         <v>51</v>
       </c>
       <c r="Z26" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA26" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AB26" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC26" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="AB26" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC26" s="10" t="s">
+      <c r="AD26" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="AD26" s="10" t="s">
-        <v>211</v>
       </c>
       <c r="AE26" s="10" t="s">
         <v>55</v>
@@ -3377,28 +3374,28 @@
     </row>
     <row r="27" spans="1:32" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>32</v>
@@ -3410,7 +3407,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>42</v>
@@ -3428,13 +3425,13 @@
         <v>44</v>
       </c>
       <c r="R27" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="T27" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>69</v>
@@ -3452,19 +3449,19 @@
         <v>51</v>
       </c>
       <c r="Z27" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA27" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="AA27" s="7" t="s">
+      <c r="AB27" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC27" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="AB27" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC27" s="6" t="s">
+      <c r="AD27" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>225</v>
       </c>
       <c r="AE27" s="6" t="s">
         <v>55</v>
@@ -3473,30 +3470,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="45" customHeight="1">
+    <row r="28" spans="1:32" ht="60" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>116</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>229</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3526,13 +3523,13 @@
         <v>44</v>
       </c>
       <c r="R28" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>69</v>
@@ -3550,19 +3547,19 @@
         <v>51</v>
       </c>
       <c r="Z28" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA28" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AB28" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC28" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AB28" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC28" s="10" t="s">
+      <c r="AD28" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="AD28" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>55</v>
@@ -3573,28 +3570,28 @@
     </row>
     <row r="29" spans="1:32" ht="60" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>32</v>
@@ -3624,13 +3621,13 @@
         <v>44</v>
       </c>
       <c r="R29" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="S29" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="T29" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -3648,19 +3645,19 @@
         <v>51</v>
       </c>
       <c r="Z29" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA29" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="AA29" s="7" t="s">
+      <c r="AB29" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC29" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AB29" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="AD29" s="6" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
       <c r="AE29" s="6" t="s">
         <v>55</v>
@@ -3671,28 +3668,28 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>253</v>
-      </c>
       <c r="H30" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3704,7 +3701,7 @@
         <v>40</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>42</v>
@@ -3722,13 +3719,13 @@
         <v>44</v>
       </c>
       <c r="R30" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="S30" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="S30" s="11" t="s">
+      <c r="T30" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="U30" s="11" t="s">
         <v>83</v>
@@ -3746,19 +3743,19 @@
         <v>51</v>
       </c>
       <c r="Z30" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA30" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="AA30" s="11" t="s">
+      <c r="AB30" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC30" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AB30" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC30" s="10" t="s">
+      <c r="AD30" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="AD30" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="AE30" s="10" t="s">
         <v>55</v>
@@ -3790,27 +3787,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-ymf262-bom.xlsx
+++ b/BoM/Positional/rcbus-ymf262-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="281">
   <si>
     <t>Row</t>
   </si>
@@ -158,10 +158,10 @@
     <t>Capacitor_SMD:C_0603_1608Metric_Pad1.08x0.95mm_HandSolder</t>
   </si>
   <si>
-    <t>-34.5280</t>
-  </si>
-  <si>
-    <t>2.8180</t>
+    <t>-39.0280</t>
+  </si>
+  <si>
+    <t>-0.0445</t>
   </si>
   <si>
     <t>270.0000</t>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>Net-(U3-AOUT),GND</t>
+    <t>GND,Net-(U3-AOUT)</t>
   </si>
   <si>
     <t>Default</t>
@@ -209,10 +209,10 @@
     <t>12.8180</t>
   </si>
   <si>
-    <t>/L,Net-(U4C--)</t>
-  </si>
-  <si>
-    <t>L,Net-(U4C--)</t>
+    <t>Net-(U4C--),/R</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>3</t>
@@ -230,10 +230,10 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>/AUDIO_CH2,GND</t>
-  </si>
-  <si>
-    <t>AUDIO_CH2,GND</t>
+    <t>GND,/AUDIO_CH1</t>
+  </si>
+  <si>
+    <t>AUDIO_CH1</t>
   </si>
   <si>
     <t>4</t>
@@ -251,7 +251,7 @@
     <t>10.3180</t>
   </si>
   <si>
-    <t>Net-(C17-Pad1),GND</t>
+    <t>GND,Net-(C17-Pad1)</t>
   </si>
   <si>
     <t>5</t>
@@ -263,337 +263,334 @@
     <t>10nF</t>
   </si>
   <si>
-    <t>-79.0280</t>
-  </si>
-  <si>
-    <t>-5.6820</t>
+    <t>-78.5280</t>
+  </si>
+  <si>
+    <t>-5.7945</t>
+  </si>
+  <si>
+    <t>VCC,GND</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>C1 C3 C6 C7 C12 C19</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(6)</t>
+  </si>
+  <si>
+    <t>-49.2780</t>
+  </si>
+  <si>
+    <t>-25.4320</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Polarized capacitor, small symbol</t>
+  </si>
+  <si>
+    <t>C_Polarized_Small</t>
+  </si>
+  <si>
+    <t>C8 C15 C16</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>rcbus-ymf262(3)</t>
+  </si>
+  <si>
+    <t>-44.0280</t>
+  </si>
+  <si>
+    <t>GND,Net-(U3-CV)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>C4 C5</t>
+  </si>
+  <si>
+    <t>C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1206_3216Metric</t>
+  </si>
+  <si>
+    <t>-70.5280</t>
+  </si>
+  <si>
+    <t>-5.8820</t>
+  </si>
+  <si>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),GND</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>CON1</t>
+  </si>
+  <si>
+    <t>SJ1-3523N</t>
+  </si>
+  <si>
+    <t>Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>electrified</t>
+  </si>
+  <si>
+    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
+  </si>
+  <si>
+    <t>-11.4590</t>
+  </si>
+  <si>
+    <t>6.2230</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>9.3500</t>
+  </si>
+  <si>
+    <t>11.8000</t>
+  </si>
+  <si>
+    <t>,Net-(C18-Pad1),Net-(C17-Pad1),GND</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x06_Odd_Even</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>BASE ADDRESS</t>
+  </si>
+  <si>
+    <t>PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-95.5280</t>
+  </si>
+  <si>
+    <t>-24.8420</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>Net-(JP1-Pin_11),Net-(JP1-Pin_5),Net-(JP1-Pin_3),Net-(JP1-Pin_1),VCC,Net-(JP1-Pin_7),Net-(JP1-Pin_9)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>33uH</t>
+  </si>
+  <si>
+    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Inductor_SMD</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>-67.5280</t>
+  </si>
+  <si>
+    <t>-5.8070</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),+5VA</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>BLM18PG221SN1D</t>
+  </si>
+  <si>
+    <t>-76.0280</t>
+  </si>
+  <si>
+    <t>Net-(C3-Pad1),VCC</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_01x39</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>RC2014 BUS</t>
+  </si>
+  <si>
+    <t>PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>-98.5280</t>
+  </si>
+  <si>
+    <t>-31.6820</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>98.2200</t>
+  </si>
+  <si>
+    <t>/A3,/~{WR},/D3,unconnected-(P1-Pin_19-Pad19),/~{RD},/A7,/D1,unconnected-(P1-Pin_1-Pad1),/A2,/~{RESET},unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_38-Pad38),/~{IORQ},unconnected-(P1-Pin_23-Pad23),/D6,GND,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_4-Pad4),/~{INT},/A5,VCC,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_8-Pad8),/A0,/A1,/D2,/A6,unconnected-(P1-Pin_5-Pad5),/D0,/D7,unconnected-(P1-Pin_7-Pad7),/D4,unconnected-(P1-Pin_6-Pad6),/A4,/D5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>Resistor_SMD</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
+  </si>
+  <si>
+    <t>-37.2780</t>
+  </si>
+  <si>
+    <t>-0.0945</t>
+  </si>
+  <si>
+    <t>Net-(U4B--),Net-(U3-SWIN)</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>R10 R11</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>-23.5280</t>
+  </si>
+  <si>
+    <t>10.0680</t>
+  </si>
+  <si>
+    <t>Net-(C15-Pad2),Net-(C17-Pad1)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Resistor, small symbol</t>
+  </si>
+  <si>
+    <t>R_Small</t>
+  </si>
+  <si>
+    <t>R1 R2 R3 R4 R5 R6</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>-86.3905</t>
+  </si>
+  <si>
+    <t>-12.1520</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
-    <t>VCC,GND</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>C1 C3 C6 C7 C12 C19</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(6)</t>
-  </si>
-  <si>
-    <t>-49.2780</t>
-  </si>
-  <si>
-    <t>-25.4320</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Polarized capacitor, small symbol</t>
-  </si>
-  <si>
-    <t>C_Polarized_Small</t>
-  </si>
-  <si>
-    <t>C8 C15 C16</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>rcbus-ymf262(3)</t>
-  </si>
-  <si>
-    <t>-44.0280</t>
-  </si>
-  <si>
-    <t>-0.0445</t>
-  </si>
-  <si>
-    <t>Net-(U3-CV),GND</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>C4 C5</t>
-  </si>
-  <si>
-    <t>C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
-    <t>-68.0280</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),GND</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>CON1</t>
-  </si>
-  <si>
-    <t>SJ1-3523N</t>
-  </si>
-  <si>
-    <t>Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>electrified</t>
-  </si>
-  <si>
-    <t>electrified:Headphone_Jack_3.5mm_5_pin</t>
-  </si>
-  <si>
-    <t>-11.4590</t>
-  </si>
-  <si>
-    <t>6.2230</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>9.3500</t>
-  </si>
-  <si>
-    <t>11.8000</t>
-  </si>
-  <si>
-    <t>,GND,Net-(C18-Pad1),Net-(C17-Pad1)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x06, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x06_Odd_Even</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>BASE ADDRESS</t>
-  </si>
-  <si>
-    <t>PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x06_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-95.5280</t>
-  </si>
-  <si>
-    <t>-24.8420</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_3),Net-(JP1-Pin_7),Net-(JP1-Pin_9),Net-(JP1-Pin_11),VCC,Net-(JP1-Pin_5),Net-(JP1-Pin_1)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>33uH</t>
-  </si>
-  <si>
-    <t>L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Inductor_SMD</t>
-  </si>
-  <si>
-    <t>Inductor_SMD:L_0603_1608Metric_Pad1.05x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>-62.5280</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),+5VA</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>BLM18PG221SN1D</t>
-  </si>
-  <si>
-    <t>-76.4030</t>
-  </si>
-  <si>
-    <t>-0.6820</t>
-  </si>
-  <si>
-    <t>Net-(C3-Pad1),VCC</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x39, script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_01x39</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>RC2014 BUS</t>
-  </si>
-  <si>
-    <t>PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>electrified:PinHeader_1x39_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>-98.5280</t>
-  </si>
-  <si>
-    <t>-31.6820</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>98.2200</t>
-  </si>
-  <si>
-    <t>/~{INT},/A3,/A2,unconnected-(P1-Pin_36-Pad36),/~{IORQ},unconnected-(P1-Pin_23-Pad23),/D5,/A0,unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_8-Pad8),/D4,unconnected-(P1-Pin_19-Pad19),unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_37-Pad37),VCC,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_4-Pad4),/D2,GND,/D1,/A5,unconnected-(P1-Pin_21-Pad21),/~{WR},/~{RD},/D0,unconnected-(P1-Pin_35-Pad35),/A4,unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_1-Pad1),/A6,unconnected-(P1-Pin_6-Pad6),/D3,unconnected-(P1-Pin_38-Pad38),/A7,/A1,/~{RESET},/D6,unconnected-(P1-Pin_7-Pad7),/D7</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>Resistor_SMD</t>
-  </si>
-  <si>
-    <t>Resistor_SMD:R_0603_1608Metric_Pad0.98x0.95mm_HandSolder</t>
-  </si>
-  <si>
-    <t>-38.2780</t>
-  </si>
-  <si>
-    <t>-0.0945</t>
-  </si>
-  <si>
-    <t>Net-(U4B--),Net-(U3-SWIN)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>R10 R11</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>-23.5280</t>
-  </si>
-  <si>
-    <t>10.0680</t>
-  </si>
-  <si>
-    <t>Net-(C17-Pad1),Net-(C15-Pad2)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Resistor, small symbol</t>
-  </si>
-  <si>
-    <t>R_Small</t>
-  </si>
-  <si>
-    <t>R1 R2 R3 R4 R5 R6</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>-86.3905</t>
-  </si>
-  <si>
-    <t>-12.1520</t>
-  </si>
-  <si>
-    <t>Net-(JP1-Pin_11),GND</t>
+    <t>GND,Net-(JP1-Pin_11)</t>
   </si>
   <si>
     <t>17</t>
@@ -647,10 +644,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/A3,Net-(JP1-Pin_3),/A2,Net-(JP1-Pin_7),GND,Net-(JP1-Pin_9),Net-(JP1-Pin_11),/A5,/~{IORQ},/A7,/~{CS},VCC,/A4,Net-(JP1-Pin_5),/A6,Net-(JP1-Pin_1)</t>
-  </si>
-  <si>
-    <t>A6,Net-(JP1-Pin_1)</t>
+    <t>/A3,Net-(JP1-Pin_11),/A2,Net-(JP1-Pin_7),/A4,Net-(JP1-Pin_5),/A6,GND,Net-(JP1-Pin_3),Net-(JP1-Pin_1),/A5,VCC,/A7,/~{IORQ},/~{CS},Net-(JP1-Pin_9)</t>
+  </si>
+  <si>
+    <t>~{CS},Net-(JP1-Pin_9)</t>
   </si>
   <si>
     <t>19</t>
@@ -689,10 +686,10 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>Net-(U4B--),Net-(U4C--),+5VA,GND,Net-(U3-CV),/AUDIO_CH2,Net-(U4D--),/R,Net-(U3-AOUT),/L,Net-(U3-MP),/AUDIO_CH1</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1</t>
+    <t>Net-(U4C--),Net-(U4B--),GND,Net-(U3-CV),/AUDIO_CH1,/R,/AUDIO_CH2,Net-(U4D--),/L,Net-(U3-AOUT),+5VA,Net-(U3-MP)</t>
+  </si>
+  <si>
+    <t>L,Net-(U3-AOUT),+5VA,Net-(U3-MP)</t>
   </si>
   <si>
     <t>20</t>
@@ -722,10 +719,10 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>Net-(U3-SWIN),/SMPAC,GND,/DOAB,+5VA,/DAC_CLK,/AUDIO_CH2,unconnected-(U3-TST2-Pad15),Net-(U3-CV),/SMPBD,Net-(U3-AOUT),/AUDIO_CH1,Net-(U3-MP)</t>
-  </si>
-  <si>
-    <t>AUDIO_CH1,Net-(U3-MP)</t>
+    <t>GND,Net-(U3-CV),/DAC_CLK,/AUDIO_CH1,Net-(U3-SWIN),/SMPAC,/AUDIO_CH2,unconnected-(U3-TST2-Pad15),Net-(U3-AOUT),+5VA,Net-(U3-MP),/DOAB,/SMPBD</t>
+  </si>
+  <si>
+    <t>SMPBD</t>
   </si>
   <si>
     <t>21</t>
@@ -743,9 +740,6 @@
     <t>Package_SO:SOP-24_7.5x15.4mm_P1.27mm</t>
   </si>
   <si>
-    <t>-39.0280</t>
-  </si>
-  <si>
     <t>-20.6820</t>
   </si>
   <si>
@@ -755,7 +749,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>/DOAB,/D5,/A0,/SMPAC,/DAC_CLK,/D4,unconnected-(U2-~{IRQ}-Pad2),unconnected-(U2-DOCD-Pad22),VCC,unconnected-(U2-TEST-Pad9),/D2,GND,/D1,/~{WR},/~{RD},/D0,/SMPBD,/CLK,/D3,/A1,/~{RESET},/~{CS},/D6,/D7</t>
+    <t>unconnected-(U2-TEST-Pad9),/~{WR},/D3,/~{RD},/DOAB,unconnected-(U2-~{IRQ}-Pad2),/~{RESET},/CLK,/DAC_CLK,unconnected-(U2-DOCD-Pad22),/SMPBD,/D6,GND,VCC,/~{CS},/A0,/A1,/D2,/D0,/D7,/SMPAC,/D4,/D1,/D5</t>
   </si>
   <si>
     <t>22</t>
@@ -797,10 +791,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>/CLK,VCC,GND</t>
-  </si>
-  <si>
-    <t>CLK,VCC,GND</t>
+    <t>VCC,/CLK,GND</t>
+  </si>
+  <si>
+    <t>CLK,GND</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -827,7 +821,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-09-02</t>
+    <t>2025-09-03</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1408,7 +1402,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1442,13 +1436,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2" s="3">
         <v>22</v>
@@ -1456,41 +1450,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1498,13 +1492,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -2062,7 +2056,7 @@
         <v>82</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>49</v>
@@ -2086,10 +2080,10 @@
         <v>78</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE13" s="6" t="s">
         <v>55</v>
@@ -2100,7 +2094,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>33</v>
@@ -2112,10 +2106,10 @@
         <v>35</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>38</v>
@@ -2124,10 +2118,10 @@
         <v>39</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>40</v>
@@ -2139,7 +2133,7 @@
         <v>42</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>44</v>
@@ -2154,13 +2148,13 @@
         <v>45</v>
       </c>
       <c r="S14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="U14" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="V14" s="11" t="s">
         <v>49</v>
@@ -2181,39 +2175,39 @@
         <v>53</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AE14" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>38</v>
@@ -2237,7 +2231,7 @@
         <v>42</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>44</v>
@@ -2252,10 +2246,10 @@
         <v>45</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>48</v>
@@ -2279,13 +2273,13 @@
         <v>53</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>55</v>
@@ -2296,25 +2290,25 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>39</v>
@@ -2347,16 +2341,16 @@
         <v>44</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T16" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="S16" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="U16" s="11" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="V16" s="11" t="s">
         <v>49</v>
@@ -2371,19 +2365,19 @@
         <v>51</v>
       </c>
       <c r="Z16" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA16" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AB16" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC16" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="AB16" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC16" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="AD16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE16" s="10" t="s">
         <v>55</v>
@@ -2394,28 +2388,28 @@
     </row>
     <row r="17" spans="1:32" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -2445,43 +2439,43 @@
         <v>44</v>
       </c>
       <c r="R17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="S17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="T17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="T17" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="U17" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AA17" s="7" t="s">
+      <c r="AB17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AB17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="AD17" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>55</v>
@@ -2492,28 +2486,28 @@
     </row>
     <row r="18" spans="1:32" ht="45" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>32</v>
@@ -2543,43 +2537,43 @@
         <v>44</v>
       </c>
       <c r="R18" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="T18" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="U18" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y18" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA18" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AA18" s="11" t="s">
+      <c r="AB18" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="AB18" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC18" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="AD18" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE18" s="10" t="s">
         <v>55</v>
@@ -2590,28 +2584,28 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>32</v>
@@ -2641,16 +2635,16 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="S19" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="T19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="T19" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="U19" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>49</v>
@@ -2671,7 +2665,7 @@
         <v>53</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC19" s="6" t="s">
         <v>147</v>
@@ -2691,10 +2685,10 @@
         <v>148</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>35</v>
@@ -2706,10 +2700,10 @@
         <v>150</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2739,16 +2733,16 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>151</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="V20" s="11" t="s">
         <v>49</v>
@@ -2772,10 +2766,10 @@
         <v>148</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>55</v>
@@ -2786,28 +2780,28 @@
     </row>
     <row r="21" spans="1:32" ht="180" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2837,13 +2831,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="S21" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="T21" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>69</v>
@@ -2852,28 +2846,28 @@
         <v>49</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y21" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA21" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="AA21" s="7" t="s">
+      <c r="AB21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC21" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="AB21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AD21" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="AE21" s="6" t="s">
         <v>55</v>
@@ -2884,28 +2878,28 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>168</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2935,13 +2929,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="T22" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>176</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>69</v>
@@ -2965,13 +2959,13 @@
         <v>53</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>55</v>
@@ -2982,28 +2976,28 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>56</v>
@@ -3033,13 +3027,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>48</v>
@@ -3063,13 +3057,13 @@
         <v>53</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>55</v>
@@ -3080,34 +3074,34 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>40</v>
@@ -3119,7 +3113,7 @@
         <v>42</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O24" s="12" t="s">
         <v>44</v>
@@ -3131,16 +3125,16 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S24" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="U24" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="U24" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>49</v>
@@ -3161,45 +3155,45 @@
         <v>53</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>56</v>
@@ -3229,10 +3223,10 @@
         <v>44</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>62</v>
@@ -3259,7 +3253,7 @@
         <v>53</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>63</v>
@@ -3276,28 +3270,28 @@
     </row>
     <row r="26" spans="1:32" ht="45" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="C26" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>32</v>
@@ -3309,7 +3303,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>42</v>
@@ -3327,13 +3321,13 @@
         <v>44</v>
       </c>
       <c r="R26" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="S26" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="T26" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>69</v>
@@ -3351,19 +3345,19 @@
         <v>51</v>
       </c>
       <c r="Z26" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA26" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AB26" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC26" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="AB26" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC26" s="10" t="s">
+      <c r="AD26" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="AD26" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="AE26" s="10" t="s">
         <v>55</v>
@@ -3372,30 +3366,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="30" customHeight="1">
+    <row r="27" spans="1:32" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H27" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>32</v>
@@ -3407,7 +3401,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>42</v>
@@ -3425,13 +3419,13 @@
         <v>44</v>
       </c>
       <c r="R27" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="T27" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>69</v>
@@ -3449,19 +3443,19 @@
         <v>51</v>
       </c>
       <c r="Z27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA27" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="AA27" s="7" t="s">
+      <c r="AB27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC27" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="AB27" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC27" s="6" t="s">
+      <c r="AD27" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>224</v>
       </c>
       <c r="AE27" s="6" t="s">
         <v>55</v>
@@ -3470,30 +3464,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="60" customHeight="1">
+    <row r="28" spans="1:32" ht="45" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>228</v>
-      </c>
       <c r="H28" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3523,13 +3517,13 @@
         <v>44</v>
       </c>
       <c r="R28" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="S28" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="S28" s="11" t="s">
+      <c r="T28" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>69</v>
@@ -3547,19 +3541,19 @@
         <v>51</v>
       </c>
       <c r="Z28" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA28" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AB28" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC28" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="AB28" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC28" s="10" t="s">
+      <c r="AD28" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="AD28" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>55</v>
@@ -3570,28 +3564,28 @@
     </row>
     <row r="29" spans="1:32" ht="60" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="H29" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>32</v>
@@ -3621,13 +3615,13 @@
         <v>44</v>
       </c>
       <c r="R29" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -3645,19 +3639,19 @@
         <v>51</v>
       </c>
       <c r="Z29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC29" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="AA29" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC29" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="AD29" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE29" s="6" t="s">
         <v>55</v>
@@ -3668,28 +3662,28 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="H30" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3701,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>42</v>
@@ -3719,16 +3713,16 @@
         <v>44</v>
       </c>
       <c r="R30" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="T30" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="S30" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="U30" s="11" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="V30" s="11" t="s">
         <v>49</v>
@@ -3743,19 +3737,19 @@
         <v>51</v>
       </c>
       <c r="Z30" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC30" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AA30" s="11" t="s">
+      <c r="AD30" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="AB30" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC30" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD30" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="AE30" s="10" t="s">
         <v>55</v>
@@ -3787,27 +3781,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/rcbus-ymf262-bom.xlsx
+++ b/BoM/Positional/rcbus-ymf262-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="282">
   <si>
     <t>Row</t>
   </si>
@@ -182,7 +182,7 @@
     <t>0.9500</t>
   </si>
   <si>
-    <t>GND,Net-(U3-AOUT)</t>
+    <t>Net-(U3-AOUT),GND</t>
   </si>
   <si>
     <t>Default</t>
@@ -269,7 +269,10 @@
     <t>-5.7945</t>
   </si>
   <si>
-    <t>VCC,GND</t>
+    <t>GND,VCC</t>
+  </si>
+  <si>
+    <t>Default,vcc</t>
   </si>
   <si>
     <t>6</t>
@@ -314,7 +317,7 @@
     <t>-44.0280</t>
   </si>
   <si>
-    <t>GND,Net-(U3-CV)</t>
+    <t>Net-(U3-CV),GND</t>
   </si>
   <si>
     <t>8</t>
@@ -386,7 +389,7 @@
     <t>11.8000</t>
   </si>
   <si>
-    <t>,Net-(C18-Pad1),Net-(C17-Pad1),GND</t>
+    <t>,Net-(C18-Pad1),GND,Net-(C17-Pad1)</t>
   </si>
   <si>
     <t>10</t>
@@ -428,7 +431,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>Net-(JP1-Pin_11),Net-(JP1-Pin_5),Net-(JP1-Pin_3),Net-(JP1-Pin_1),VCC,Net-(JP1-Pin_7),Net-(JP1-Pin_9)</t>
+    <t>Net-(JP1-Pin_1),Net-(JP1-Pin_7),Net-(JP1-Pin_5),Net-(JP1-Pin_3),Net-(JP1-Pin_9),Net-(JP1-Pin_11),VCC</t>
   </si>
   <si>
     <t>11</t>
@@ -512,10 +515,10 @@
     <t>98.2200</t>
   </si>
   <si>
-    <t>/A3,/~{WR},/D3,unconnected-(P1-Pin_19-Pad19),/~{RD},/A7,/D1,unconnected-(P1-Pin_1-Pad1),/A2,/~{RESET},unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_38-Pad38),/~{IORQ},unconnected-(P1-Pin_23-Pad23),/D6,GND,unconnected-(P1-Pin_36-Pad36),unconnected-(P1-Pin_35-Pad35),unconnected-(P1-Pin_4-Pad4),/~{INT},/A5,VCC,unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_2-Pad2),unconnected-(P1-Pin_39-Pad39),unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_8-Pad8),/A0,/A1,/D2,/A6,unconnected-(P1-Pin_5-Pad5),/D0,/D7,unconnected-(P1-Pin_7-Pad7),/D4,unconnected-(P1-Pin_6-Pad6),/A4,/D5</t>
-  </si>
-  <si>
-    <t>D5</t>
+    <t>/A2,unconnected-(P1-Pin_19-Pad19),/D0,unconnected-(P1-Pin_5-Pad5),unconnected-(P1-Pin_8-Pad8),unconnected-(P1-Pin_36-Pad36),/A0,unconnected-(P1-Pin_2-Pad2),/D3,/A7,/~{IORQ},/D1,unconnected-(P1-Pin_21-Pad21),unconnected-(P1-Pin_37-Pad37),unconnected-(P1-Pin_6-Pad6),unconnected-(P1-Pin_3-Pad3),unconnected-(P1-Pin_7-Pad7),/~{RD},/D4,/A6,unconnected-(P1-Pin_35-Pad35),/~{INT},VCC,/D7,/~{RESET},GND,/A5,unconnected-(P1-Pin_4-Pad4),/D2,/~{WR},/A3,/A4,unconnected-(P1-Pin_1-Pad1),unconnected-(P1-Pin_39-Pad39),/A1,unconnected-(P1-Pin_38-Pad38),/D5,unconnected-(P1-Pin_23-Pad23),/D6</t>
+  </si>
+  <si>
+    <t>D6</t>
   </si>
   <si>
     <t>14</t>
@@ -590,7 +593,7 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>GND,Net-(JP1-Pin_11)</t>
+    <t>Net-(JP1-Pin_11),GND</t>
   </si>
   <si>
     <t>17</t>
@@ -644,10 +647,10 @@
     <t>12.0300</t>
   </si>
   <si>
-    <t>/A3,Net-(JP1-Pin_11),/A2,Net-(JP1-Pin_7),/A4,Net-(JP1-Pin_5),/A6,GND,Net-(JP1-Pin_3),Net-(JP1-Pin_1),/A5,VCC,/A7,/~{IORQ},/~{CS},Net-(JP1-Pin_9)</t>
-  </si>
-  <si>
-    <t>~{CS},Net-(JP1-Pin_9)</t>
+    <t>/A2,VCC,Net-(JP1-Pin_1),Net-(JP1-Pin_7),/~{CS},Net-(JP1-Pin_5),GND,/A5,Net-(JP1-Pin_3),Net-(JP1-Pin_9),/A7,Net-(JP1-Pin_11),/A6,/~{IORQ},/A3,/A4</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>19</t>
@@ -686,10 +689,10 @@
     <t>8.2200</t>
   </si>
   <si>
-    <t>Net-(U4C--),Net-(U4B--),GND,Net-(U3-CV),/AUDIO_CH1,/R,/AUDIO_CH2,Net-(U4D--),/L,Net-(U3-AOUT),+5VA,Net-(U3-MP)</t>
-  </si>
-  <si>
-    <t>L,Net-(U3-AOUT),+5VA,Net-(U3-MP)</t>
+    <t>Net-(U4C--),+5VA,Net-(U4B--),/AUDIO_CH2,/L,GND,/AUDIO_CH1,Net-(U4D--),Net-(U3-AOUT),Net-(U3-MP),/R,Net-(U3-CV)</t>
+  </si>
+  <si>
+    <t>R,Net-(U3-CV)</t>
   </si>
   <si>
     <t>20</t>
@@ -719,7 +722,7 @@
     <t>9.4900</t>
   </si>
   <si>
-    <t>GND,Net-(U3-CV),/DAC_CLK,/AUDIO_CH1,Net-(U3-SWIN),/SMPAC,/AUDIO_CH2,unconnected-(U3-TST2-Pad15),Net-(U3-AOUT),+5VA,Net-(U3-MP),/DOAB,/SMPBD</t>
+    <t>unconnected-(U3-TST2-Pad15),+5VA,/AUDIO_CH2,GND,/SMPAC,/AUDIO_CH1,/DAC_CLK,Net-(U3-AOUT),/DOAB,Net-(U3-MP),Net-(U3-SWIN),Net-(U3-CV),/SMPBD</t>
   </si>
   <si>
     <t>SMPBD</t>
@@ -749,7 +752,7 @@
     <t>14.5200</t>
   </si>
   <si>
-    <t>unconnected-(U2-TEST-Pad9),/~{WR},/D3,/~{RD},/DOAB,unconnected-(U2-~{IRQ}-Pad2),/~{RESET},/CLK,/DAC_CLK,unconnected-(U2-DOCD-Pad22),/SMPBD,/D6,GND,VCC,/~{CS},/A0,/A1,/D2,/D0,/D7,/SMPAC,/D4,/D1,/D5</t>
+    <t>/D0,/A0,/SMPAC,unconnected-(U2-DOCD-Pad22),/D3,/D1,/~{RD},/D4,/DOAB,/CLK,VCC,/D7,/~{RESET},/~{CS},unconnected-(U2-TEST-Pad9),GND,unconnected-(U2-~{IRQ}-Pad2),/DAC_CLK,/D2,/~{WR},/SMPBD,/A1,/D5,/D6</t>
   </si>
   <si>
     <t>22</t>
@@ -791,10 +794,10 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>VCC,/CLK,GND</t>
-  </si>
-  <si>
-    <t>CLK,GND</t>
+    <t>/CLK,GND,VCC</t>
+  </si>
+  <si>
+    <t>CLK,GND,VCC</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -821,7 +824,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-09-03</t>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -1402,7 +1405,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1436,13 +1439,13 @@
     </row>
     <row r="2" spans="1:32">
       <c r="C2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="3">
         <v>22</v>
@@ -1450,41 +1453,41 @@
     </row>
     <row r="3" spans="1:32">
       <c r="C3" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1492,13 +1495,13 @@
     </row>
     <row r="6" spans="1:32">
       <c r="C6" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -2086,7 +2089,7 @@
         <v>83</v>
       </c>
       <c r="AE13" s="6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AF13" s="7" t="s">
         <v>32</v>
@@ -2094,7 +2097,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>33</v>
@@ -2106,10 +2109,10 @@
         <v>35</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>38</v>
@@ -2118,10 +2121,10 @@
         <v>39</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>40</v>
@@ -2133,7 +2136,7 @@
         <v>42</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O14" s="12" t="s">
         <v>44</v>
@@ -2148,13 +2151,13 @@
         <v>45</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U14" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V14" s="11" t="s">
         <v>49</v>
@@ -2175,7 +2178,7 @@
         <v>53</v>
       </c>
       <c r="AB14" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC14" s="10" t="s">
         <v>83</v>
@@ -2184,30 +2187,30 @@
         <v>83</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AF14" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>38</v>
@@ -2231,7 +2234,7 @@
         <v>42</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>44</v>
@@ -2246,7 +2249,7 @@
         <v>45</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>47</v>
@@ -2273,13 +2276,13 @@
         <v>53</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE15" s="6" t="s">
         <v>55</v>
@@ -2290,25 +2293,25 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>39</v>
@@ -2341,13 +2344,13 @@
         <v>44</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>48</v>
@@ -2365,19 +2368,19 @@
         <v>51</v>
       </c>
       <c r="Z16" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA16" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AE16" s="10" t="s">
         <v>55</v>
@@ -2388,28 +2391,28 @@
     </row>
     <row r="17" spans="1:32" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>32</v>
@@ -2439,43 +2442,43 @@
         <v>44</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>49</v>
       </c>
       <c r="W17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y17" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AE17" s="6" t="s">
         <v>55</v>
@@ -2486,28 +2489,28 @@
     </row>
     <row r="18" spans="1:32" ht="45" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>32</v>
@@ -2537,46 +2540,46 @@
         <v>44</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V18" s="11" t="s">
         <v>49</v>
       </c>
       <c r="W18" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y18" s="11" t="s">
         <v>51</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA18" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AB18" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AF18" s="11" t="s">
         <v>32</v>
@@ -2584,28 +2587,28 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>32</v>
@@ -2635,13 +2638,13 @@
         <v>44</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U19" s="7" t="s">
         <v>69</v>
@@ -2665,13 +2668,13 @@
         <v>53</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AE19" s="6" t="s">
         <v>55</v>
@@ -2682,28 +2685,28 @@
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>32</v>
@@ -2733,13 +2736,13 @@
         <v>44</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>48</v>
@@ -2763,45 +2766,45 @@
         <v>53</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AF20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="180" customHeight="1">
+    <row r="21" spans="1:32" ht="165" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>32</v>
@@ -2831,13 +2834,13 @@
         <v>44</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>69</v>
@@ -2846,31 +2849,31 @@
         <v>49</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Y21" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AF21" s="7" t="s">
         <v>32</v>
@@ -2878,10 +2881,10 @@
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>64</v>
@@ -2890,16 +2893,16 @@
         <v>35</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -2929,13 +2932,13 @@
         <v>44</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>69</v>
@@ -2959,13 +2962,13 @@
         <v>53</v>
       </c>
       <c r="AB22" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC22" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>55</v>
@@ -2976,10 +2979,10 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>64</v>
@@ -2988,16 +2991,16 @@
         <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>56</v>
@@ -3027,13 +3030,13 @@
         <v>44</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U23" s="7" t="s">
         <v>48</v>
@@ -3057,13 +3060,13 @@
         <v>53</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE23" s="6" t="s">
         <v>55</v>
@@ -3074,34 +3077,34 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>40</v>
@@ -3113,7 +3116,7 @@
         <v>42</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O24" s="12" t="s">
         <v>44</v>
@@ -3125,16 +3128,16 @@
         <v>44</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V24" s="11" t="s">
         <v>49</v>
@@ -3155,27 +3158,27 @@
         <v>53</v>
       </c>
       <c r="AB24" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AC24" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AD24" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE24" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AF24" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>64</v>
@@ -3184,16 +3187,16 @@
         <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>56</v>
@@ -3223,10 +3226,10 @@
         <v>44</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>62</v>
@@ -3253,7 +3256,7 @@
         <v>53</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>63</v>
@@ -3270,28 +3273,28 @@
     </row>
     <row r="26" spans="1:32" ht="45" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D26" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="G26" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>32</v>
@@ -3303,7 +3306,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>42</v>
@@ -3321,13 +3324,13 @@
         <v>44</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U26" s="11" t="s">
         <v>69</v>
@@ -3345,22 +3348,22 @@
         <v>51</v>
       </c>
       <c r="Z26" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA26" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB26" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC26" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AD26" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AE26" s="10" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AF26" s="11" t="s">
         <v>32</v>
@@ -3368,28 +3371,28 @@
     </row>
     <row r="27" spans="1:32" ht="45" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>32</v>
@@ -3401,7 +3404,7 @@
         <v>40</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>42</v>
@@ -3419,13 +3422,13 @@
         <v>44</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="U27" s="7" t="s">
         <v>69</v>
@@ -3443,19 +3446,19 @@
         <v>51</v>
       </c>
       <c r="Z27" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AE27" s="6" t="s">
         <v>55</v>
@@ -3466,28 +3469,28 @@
     </row>
     <row r="28" spans="1:32" ht="45" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="G28" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3517,13 +3520,13 @@
         <v>44</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T28" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U28" s="11" t="s">
         <v>69</v>
@@ -3541,19 +3544,19 @@
         <v>51</v>
       </c>
       <c r="Z28" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA28" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AB28" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC28" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AD28" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AE28" s="10" t="s">
         <v>55</v>
@@ -3564,28 +3567,28 @@
     </row>
     <row r="29" spans="1:32" ht="60" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>32</v>
@@ -3615,13 +3618,13 @@
         <v>44</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>46</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U29" s="7" t="s">
         <v>69</v>
@@ -3639,22 +3642,22 @@
         <v>51</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AC29" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AE29" s="6" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AF29" s="7" t="s">
         <v>32</v>
@@ -3662,28 +3665,28 @@
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E30" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>247</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3695,7 +3698,7 @@
         <v>40</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M30" s="11" t="s">
         <v>42</v>
@@ -3713,16 +3716,16 @@
         <v>44</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U30" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V30" s="11" t="s">
         <v>49</v>
@@ -3737,22 +3740,22 @@
         <v>51</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AA30" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AB30" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AC30" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AD30" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AE30" s="10" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="AF30" s="11" t="s">
         <v>32</v>
@@ -3781,27 +3784,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
